--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="476">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1425,6 +1425,42 @@
   </si>
   <si>
     <t>11/2-4, 7-11, 14-18/2023</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>9/1,2,5,20/2022</t>
+  </si>
+  <si>
+    <t>UT(0-2-30)</t>
+  </si>
+  <si>
+    <t>6/22,28/2022</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-57)</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>3/1-4,24,25,28/2022</t>
+  </si>
+  <si>
+    <t>5/5,6,10,20,23/2022</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>7/11-12/2023</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2175,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K785" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K791" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2468,12 +2504,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K785"/>
+  <dimension ref="A2:K791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3450" topLeftCell="A744" activePane="bottomLeft"/>
+      <pane ySplit="3450" topLeftCell="A756" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="E754" sqref="E754"/>
+      <selection pane="bottomLeft" activeCell="F772" sqref="F772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2668,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.994999999999976</v>
+        <v>54.434999999999917</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2642,7 +2678,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>108.37499999999997</v>
+        <v>106.37499999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18364,50 +18400,51 @@
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A740" s="40"/>
       <c r="B740" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C740" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D740" s="39"/>
+        <v>471</v>
+      </c>
+      <c r="C740" s="13"/>
+      <c r="D740" s="39">
+        <v>7</v>
+      </c>
       <c r="E740" s="9"/>
       <c r="F740" s="20"/>
-      <c r="G740" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H740" s="39">
-        <v>1</v>
-      </c>
+      <c r="G740" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H740" s="39"/>
       <c r="I740" s="9"/>
       <c r="J740" s="11"/>
-      <c r="K740" s="48">
-        <v>44658</v>
+      <c r="K740" s="20" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A741" s="40"/>
+      <c r="A741" s="40">
+        <v>44652</v>
+      </c>
       <c r="B741" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C741" s="13"/>
-      <c r="D741" s="39">
-        <v>0.75</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C741" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D741" s="39"/>
       <c r="E741" s="9"/>
       <c r="F741" s="20"/>
-      <c r="G741" s="13"/>
+      <c r="G741" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H741" s="39">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I741" s="9"/>
       <c r="J741" s="11"/>
       <c r="K741" s="48">
-        <v>44673</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
@@ -18417,296 +18454,283 @@
       </c>
       <c r="C742" s="13"/>
       <c r="D742" s="39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E742" s="9"/>
       <c r="F742" s="20"/>
       <c r="G742" s="13"/>
-      <c r="H742" s="39"/>
+      <c r="H742" s="39">
+        <v>0.25</v>
+      </c>
       <c r="I742" s="9"/>
       <c r="J742" s="11"/>
       <c r="K742" s="48">
-        <v>44679</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A743" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A743" s="40"/>
       <c r="B743" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C743" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C743" s="13"/>
       <c r="D743" s="39">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E743" s="9"/>
       <c r="F743" s="20"/>
-      <c r="G743" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H743" s="39">
-        <v>1.25</v>
-      </c>
+      <c r="G743" s="13"/>
+      <c r="H743" s="39"/>
       <c r="I743" s="9"/>
       <c r="J743" s="11"/>
-      <c r="K743" s="20"/>
+      <c r="K743" s="48">
+        <v>44679</v>
+      </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A744" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A744" s="40"/>
       <c r="B744" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C744" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D744" s="39"/>
+        <v>474</v>
+      </c>
+      <c r="C744" s="13"/>
+      <c r="D744" s="39">
+        <v>5</v>
+      </c>
       <c r="E744" s="9"/>
       <c r="F744" s="20"/>
-      <c r="G744" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H744" s="39">
-        <v>1</v>
-      </c>
+      <c r="G744" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H744" s="39"/>
       <c r="I744" s="9"/>
       <c r="J744" s="11"/>
-      <c r="K744" s="48">
-        <v>44708</v>
+      <c r="K744" s="48" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20" t="s">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="C745" s="13"/>
       <c r="D745" s="39">
-        <v>3</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="E745" s="9"/>
       <c r="F745" s="20"/>
-      <c r="G745" s="13"/>
+      <c r="G745" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H745" s="39"/>
       <c r="I745" s="9"/>
       <c r="J745" s="11"/>
-      <c r="K745" s="20" t="s">
-        <v>455</v>
-      </c>
+      <c r="K745" s="48"/>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A746" s="40"/>
+      <c r="A746" s="40">
+        <v>44682</v>
+      </c>
       <c r="B746" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C746" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="C746" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D746" s="39">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E746" s="9"/>
-      <c r="F746" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="G746" s="13"/>
+      <c r="F746" s="20"/>
+      <c r="G746" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H746" s="39">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="I746" s="9"/>
-      <c r="J746" s="11">
-        <v>0.25</v>
-      </c>
+      <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A747" s="40"/>
+      <c r="A747" s="40">
+        <v>44713</v>
+      </c>
       <c r="B747" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C747" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C747" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D747" s="39"/>
       <c r="E747" s="9"/>
       <c r="F747" s="20"/>
-      <c r="G747" s="13"/>
-      <c r="H747" s="39"/>
+      <c r="G747" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H747" s="39">
+        <v>1</v>
+      </c>
       <c r="I747" s="9"/>
-      <c r="J747" s="11">
+      <c r="J747" s="11"/>
+      <c r="K747" s="48">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="40"/>
+      <c r="B748" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C748" s="13"/>
+      <c r="D748" s="39">
         <v>3</v>
       </c>
-      <c r="K747" s="20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A748" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B748" s="20"/>
-      <c r="C748" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D748" s="39"/>
       <c r="E748" s="9"/>
       <c r="F748" s="20"/>
-      <c r="G748" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G748" s="13"/>
       <c r="H748" s="39"/>
       <c r="I748" s="9"/>
       <c r="J748" s="11"/>
-      <c r="K748" s="20"/>
+      <c r="K748" s="20" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A749" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B749" s="20"/>
-      <c r="C749" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D749" s="39"/>
+      <c r="A749" s="40"/>
+      <c r="B749" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C749" s="13"/>
+      <c r="D749" s="39">
+        <v>1.5</v>
+      </c>
       <c r="E749" s="9"/>
-      <c r="F749" s="20"/>
-      <c r="G749" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H749" s="39"/>
+      <c r="F749" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G749" s="13"/>
+      <c r="H749" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I749" s="9"/>
-      <c r="J749" s="11"/>
+      <c r="J749" s="11">
+        <v>0.25</v>
+      </c>
       <c r="K749" s="20"/>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A750" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A750" s="40"/>
       <c r="B750" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C750" s="13">
-        <v>1.25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C750" s="13"/>
       <c r="D750" s="39"/>
       <c r="E750" s="9"/>
       <c r="F750" s="20"/>
-      <c r="G750" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G750" s="13"/>
       <c r="H750" s="39"/>
       <c r="I750" s="9"/>
       <c r="J750" s="11">
-        <v>1</v>
-      </c>
-      <c r="K750" s="48">
-        <v>44757</v>
+        <v>3</v>
+      </c>
+      <c r="K750" s="20" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20" t="s">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="C751" s="13"/>
-      <c r="D751" s="39"/>
+      <c r="D751" s="39">
+        <v>2</v>
+      </c>
       <c r="E751" s="9"/>
       <c r="F751" s="20"/>
-      <c r="G751" s="41" t="str">
+      <c r="G751" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H751" s="39">
-        <v>3</v>
-      </c>
+      <c r="H751" s="39"/>
       <c r="I751" s="9"/>
       <c r="J751" s="11"/>
-      <c r="K751" s="48" t="s">
-        <v>458</v>
+      <c r="K751" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A752" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A752" s="40"/>
       <c r="B752" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C752" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D752" s="39"/>
+        <v>469</v>
+      </c>
+      <c r="C752" s="13"/>
+      <c r="D752" s="39">
+        <v>0.129</v>
+      </c>
       <c r="E752" s="9"/>
       <c r="F752" s="20"/>
-      <c r="G752" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H752" s="39">
-        <v>3</v>
-      </c>
+      <c r="G752" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H752" s="39"/>
       <c r="I752" s="9"/>
       <c r="J752" s="11"/>
-      <c r="K752" s="20" t="s">
-        <v>457</v>
-      </c>
+      <c r="K752" s="20"/>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>44866</v>
+        <v>44743</v>
       </c>
       <c r="B753" s="20" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="C753" s="13">
         <v>1.25</v>
       </c>
-      <c r="D753" s="39"/>
+      <c r="D753" s="39">
+        <v>0.312</v>
+      </c>
       <c r="E753" s="9"/>
       <c r="F753" s="20"/>
       <c r="G753" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H753" s="39">
-        <v>1</v>
-      </c>
+      <c r="H753" s="39"/>
       <c r="I753" s="9"/>
       <c r="J753" s="11"/>
-      <c r="K753" s="48">
-        <v>44887</v>
-      </c>
+      <c r="K753" s="20"/>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A754" s="40"/>
-      <c r="B754" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C754" s="13"/>
-      <c r="D754" s="39">
-        <v>13</v>
-      </c>
+      <c r="A754" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B754" s="20"/>
+      <c r="C754" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D754" s="39"/>
       <c r="E754" s="9"/>
       <c r="F754" s="20"/>
-      <c r="G754" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G754" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H754" s="39"/>
       <c r="I754" s="9"/>
       <c r="J754" s="11"/>
-      <c r="K754" s="48" t="s">
-        <v>463</v>
-      </c>
+      <c r="K754" s="20"/>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="B755" s="20" t="s">
         <v>54</v>
@@ -18721,61 +18745,65 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H755" s="39">
-        <v>1</v>
-      </c>
+      <c r="H755" s="39"/>
       <c r="I755" s="9"/>
-      <c r="J755" s="11"/>
+      <c r="J755" s="11">
+        <v>1</v>
+      </c>
       <c r="K755" s="48">
-        <v>44896</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20" t="s">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="C756" s="13"/>
-      <c r="D756" s="39">
-        <v>1</v>
-      </c>
+      <c r="D756" s="39"/>
       <c r="E756" s="9"/>
       <c r="F756" s="20"/>
-      <c r="G756" s="13" t="str">
+      <c r="G756" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H756" s="39"/>
+      <c r="H756" s="39">
+        <v>3</v>
+      </c>
       <c r="I756" s="9"/>
       <c r="J756" s="11"/>
-      <c r="K756" s="48">
-        <v>44922</v>
+      <c r="K756" s="48" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A757" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="B757" s="20"/>
+      <c r="A757" s="40"/>
+      <c r="B757" s="20" t="s">
+        <v>464</v>
+      </c>
       <c r="C757" s="13"/>
-      <c r="D757" s="39"/>
+      <c r="D757" s="39">
+        <v>4</v>
+      </c>
       <c r="E757" s="9"/>
       <c r="F757" s="20"/>
-      <c r="G757" s="41" t="str">
+      <c r="G757" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H757" s="39"/>
       <c r="I757" s="9"/>
       <c r="J757" s="11"/>
-      <c r="K757" s="20"/>
+      <c r="K757" s="48" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>44957</v>
+        <v>44835</v>
       </c>
       <c r="B758" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C758" s="13">
         <v>1.25</v>
@@ -18788,61 +18816,69 @@
         <v>1.25</v>
       </c>
       <c r="H758" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I758" s="9"/>
       <c r="J758" s="11"/>
-      <c r="K758" s="48">
-        <v>44930</v>
+      <c r="K758" s="20" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A759" s="40"/>
+      <c r="A759" s="40">
+        <v>44866</v>
+      </c>
       <c r="B759" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C759" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C759" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D759" s="39"/>
       <c r="E759" s="9"/>
       <c r="F759" s="20"/>
-      <c r="G759" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G759" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H759" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I759" s="9"/>
       <c r="J759" s="11"/>
-      <c r="K759" s="48" t="s">
-        <v>460</v>
+      <c r="K759" s="48">
+        <v>44887</v>
       </c>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A760" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B760" s="20"/>
-      <c r="C760" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D760" s="39"/>
+      <c r="A760" s="40"/>
+      <c r="B760" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C760" s="13"/>
+      <c r="D760" s="39">
+        <v>13</v>
+      </c>
       <c r="E760" s="9"/>
       <c r="F760" s="20"/>
-      <c r="G760" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G760" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H760" s="39"/>
       <c r="I760" s="9"/>
       <c r="J760" s="11"/>
-      <c r="K760" s="20"/>
+      <c r="K760" s="48" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B761" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B761" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C761" s="13">
         <v>1.25</v>
       </c>
@@ -18853,45 +18889,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H761" s="39"/>
+      <c r="H761" s="39">
+        <v>1</v>
+      </c>
       <c r="I761" s="9"/>
       <c r="J761" s="11"/>
-      <c r="K761" s="20"/>
+      <c r="K761" s="48">
+        <v>44896</v>
+      </c>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A762" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B762" s="20"/>
-      <c r="C762" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D762" s="39"/>
+      <c r="A762" s="40"/>
+      <c r="B762" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C762" s="13"/>
+      <c r="D762" s="39">
+        <v>1</v>
+      </c>
       <c r="E762" s="9"/>
       <c r="F762" s="20"/>
-      <c r="G762" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G762" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H762" s="39"/>
       <c r="I762" s="9"/>
       <c r="J762" s="11"/>
-      <c r="K762" s="20"/>
+      <c r="K762" s="48">
+        <v>44922</v>
+      </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A763" s="40">
-        <v>45077</v>
+      <c r="A763" s="47" t="s">
+        <v>459</v>
       </c>
       <c r="B763" s="20"/>
-      <c r="C763" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C763" s="13"/>
       <c r="D763" s="39"/>
       <c r="E763" s="9"/>
       <c r="F763" s="20"/>
-      <c r="G763" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G763" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H763" s="39"/>
       <c r="I763" s="9"/>
@@ -18900,7 +18940,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>45107</v>
+        <v>44957</v>
       </c>
       <c r="B764" s="20" t="s">
         <v>54</v>
@@ -18921,13 +18961,13 @@
       <c r="I764" s="9"/>
       <c r="J764" s="11"/>
       <c r="K764" s="48">
-        <v>45100</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C765" s="13"/>
       <c r="D765" s="39"/>
@@ -18938,26 +18978,28 @@
         <v/>
       </c>
       <c r="H765" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I765" s="9"/>
       <c r="J765" s="11"/>
-      <c r="K765" s="48">
-        <v>45104</v>
+      <c r="K765" s="48" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>45138</v>
+        <v>44985</v>
       </c>
       <c r="B766" s="20"/>
-      <c r="C766" s="13"/>
+      <c r="C766" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D766" s="39"/>
       <c r="E766" s="9"/>
       <c r="F766" s="20"/>
-      <c r="G766" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G766" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H766" s="39"/>
       <c r="I766" s="9"/>
@@ -18966,16 +19008,18 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="B767" s="20"/>
-      <c r="C767" s="13"/>
+      <c r="C767" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D767" s="39"/>
       <c r="E767" s="9"/>
       <c r="F767" s="20"/>
-      <c r="G767" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G767" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H767" s="39"/>
       <c r="I767" s="9"/>
@@ -18984,16 +19028,18 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>45199</v>
+        <v>45046</v>
       </c>
       <c r="B768" s="20"/>
-      <c r="C768" s="13"/>
+      <c r="C768" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D768" s="39"/>
       <c r="E768" s="9"/>
       <c r="F768" s="20"/>
-      <c r="G768" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G768" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H768" s="39"/>
       <c r="I768" s="9"/>
@@ -19002,16 +19048,18 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>45230</v>
+        <v>45077</v>
       </c>
       <c r="B769" s="20"/>
-      <c r="C769" s="13"/>
+      <c r="C769" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D769" s="39"/>
       <c r="E769" s="9"/>
       <c r="F769" s="20"/>
-      <c r="G769" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G769" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H769" s="39"/>
       <c r="I769" s="9"/>
@@ -19020,27 +19068,35 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B770" s="20"/>
-      <c r="C770" s="13"/>
+        <v>45107</v>
+      </c>
+      <c r="B770" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C770" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D770" s="39"/>
       <c r="E770" s="9"/>
       <c r="F770" s="20"/>
-      <c r="G770" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H770" s="39"/>
+      <c r="G770" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H770" s="39">
+        <v>1</v>
+      </c>
       <c r="I770" s="9"/>
       <c r="J770" s="11"/>
-      <c r="K770" s="20"/>
+      <c r="K770" s="48">
+        <v>45100</v>
+      </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B771" s="20"/>
+      <c r="A771" s="40"/>
+      <c r="B771" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C771" s="13"/>
       <c r="D771" s="39"/>
       <c r="E771" s="9"/>
@@ -19049,16 +19105,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H771" s="39"/>
+      <c r="H771" s="39">
+        <v>1</v>
+      </c>
       <c r="I771" s="9"/>
       <c r="J771" s="11"/>
-      <c r="K771" s="20"/>
+      <c r="K771" s="48">
+        <v>45104</v>
+      </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B772" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B772" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C772" s="13"/>
       <c r="D772" s="39"/>
       <c r="E772" s="9"/>
@@ -19067,14 +19129,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H772" s="39"/>
+      <c r="H772" s="39">
+        <v>2</v>
+      </c>
       <c r="I772" s="9"/>
       <c r="J772" s="11"/>
-      <c r="K772" s="20"/>
+      <c r="K772" s="20" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>45351</v>
+        <v>45169</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19092,7 +19158,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>45382</v>
+        <v>45199</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19110,7 +19176,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>45412</v>
+        <v>45230</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19128,7 +19194,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>45443</v>
+        <v>45260</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19146,7 +19212,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>45473</v>
+        <v>45291</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19164,7 +19230,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>45504</v>
+        <v>45322</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19182,7 +19248,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>45535</v>
+        <v>45351</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19200,7 +19266,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>45565</v>
+        <v>45382</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19218,7 +19284,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>45596</v>
+        <v>45412</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19236,7 +19302,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>45626</v>
+        <v>45443</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19254,7 +19320,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>45657</v>
+        <v>45473</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19272,7 +19338,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>45688</v>
+        <v>45504</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19290,21 +19356,129 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B785" s="20"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="39"/>
+      <c r="E785" s="9"/>
+      <c r="F785" s="20"/>
+      <c r="G785" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H785" s="39"/>
+      <c r="I785" s="9"/>
+      <c r="J785" s="11"/>
+      <c r="K785" s="20"/>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B786" s="20"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="39"/>
+      <c r="E786" s="9"/>
+      <c r="F786" s="20"/>
+      <c r="G786" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H786" s="39"/>
+      <c r="I786" s="9"/>
+      <c r="J786" s="11"/>
+      <c r="K786" s="20"/>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B787" s="20"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="39"/>
+      <c r="E787" s="9"/>
+      <c r="F787" s="20"/>
+      <c r="G787" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H787" s="39"/>
+      <c r="I787" s="9"/>
+      <c r="J787" s="11"/>
+      <c r="K787" s="20"/>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B788" s="20"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="39"/>
+      <c r="E788" s="9"/>
+      <c r="F788" s="20"/>
+      <c r="G788" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H788" s="39"/>
+      <c r="I788" s="9"/>
+      <c r="J788" s="11"/>
+      <c r="K788" s="20"/>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B789" s="20"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="39"/>
+      <c r="E789" s="9"/>
+      <c r="F789" s="20"/>
+      <c r="G789" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H789" s="39"/>
+      <c r="I789" s="9"/>
+      <c r="J789" s="11"/>
+      <c r="K789" s="20"/>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B790" s="20"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="39"/>
+      <c r="E790" s="9"/>
+      <c r="F790" s="20"/>
+      <c r="G790" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H790" s="39"/>
+      <c r="I790" s="9"/>
+      <c r="J790" s="11"/>
+      <c r="K790" s="20"/>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="40">
         <v>45716</v>
       </c>
-      <c r="B785" s="15"/>
-      <c r="C785" s="41"/>
-      <c r="D785" s="42"/>
-      <c r="E785" s="50"/>
-      <c r="F785" s="15"/>
-      <c r="G785" s="41" t="str">
+      <c r="B791" s="15"/>
+      <c r="C791" s="41"/>
+      <c r="D791" s="42"/>
+      <c r="E791" s="50"/>
+      <c r="F791" s="15"/>
+      <c r="G791" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H785" s="42"/>
-      <c r="I785" s="50"/>
-      <c r="J785" s="12"/>
-      <c r="K785" s="15"/>
+      <c r="H791" s="42"/>
+      <c r="I791" s="50"/>
+      <c r="J791" s="12"/>
+      <c r="K791" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19351,7 +19525,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19424,11 +19598,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="J3" s="46">
         <v>35612</v>

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="477">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>7/11-12/2023</t>
+  </si>
+  <si>
+    <t>8/4,7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2178,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K791" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K792" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2504,12 +2507,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K791"/>
+  <dimension ref="A2:K792"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3450" topLeftCell="A756" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="F772" sqref="F772"/>
+      <selection pane="bottomLeft" activeCell="E774" sqref="E774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2671,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54.434999999999917</v>
+        <v>52.684999999999917</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2678,7 +2681,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.37499999999997</v>
+        <v>106.62499999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19121,13 +19124,15 @@
       <c r="B772" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C772" s="13"/>
+      <c r="C772" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D772" s="39"/>
       <c r="E772" s="9"/>
       <c r="F772" s="20"/>
-      <c r="G772" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G772" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H772" s="39">
         <v>2</v>
@@ -19139,30 +19144,38 @@
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B773" s="20"/>
+      <c r="A773" s="40"/>
+      <c r="B773" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C773" s="13"/>
       <c r="D773" s="39"/>
       <c r="E773" s="9"/>
       <c r="F773" s="20"/>
-      <c r="G773" s="41" t="str">
+      <c r="G773" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H773" s="39"/>
+      <c r="H773" s="39">
+        <v>1</v>
+      </c>
       <c r="I773" s="9"/>
       <c r="J773" s="11"/>
-      <c r="K773" s="20"/>
+      <c r="K773" s="48">
+        <v>45132</v>
+      </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B774" s="20"/>
+        <v>45169</v>
+      </c>
+      <c r="B774" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C774" s="13"/>
-      <c r="D774" s="39"/>
+      <c r="D774" s="39">
+        <v>3</v>
+      </c>
       <c r="E774" s="9"/>
       <c r="F774" s="20"/>
       <c r="G774" s="41" t="str">
@@ -19172,11 +19185,13 @@
       <c r="H774" s="39"/>
       <c r="I774" s="9"/>
       <c r="J774" s="11"/>
-      <c r="K774" s="20"/>
+      <c r="K774" s="20" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19194,7 +19209,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19212,7 +19227,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19230,7 +19245,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19248,7 +19263,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19266,7 +19281,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19284,7 +19299,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19302,7 +19317,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19320,7 +19335,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19338,7 +19353,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19356,7 +19371,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19374,7 +19389,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19392,7 +19407,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19410,7 +19425,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19428,7 +19443,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19446,7 +19461,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19464,21 +19479,39 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B791" s="20"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="39"/>
+      <c r="E791" s="9"/>
+      <c r="F791" s="20"/>
+      <c r="G791" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H791" s="39"/>
+      <c r="I791" s="9"/>
+      <c r="J791" s="11"/>
+      <c r="K791" s="20"/>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A792" s="40">
         <v>45716</v>
       </c>
-      <c r="B791" s="15"/>
-      <c r="C791" s="41"/>
-      <c r="D791" s="42"/>
-      <c r="E791" s="50"/>
-      <c r="F791" s="15"/>
-      <c r="G791" s="41" t="str">
+      <c r="B792" s="15"/>
+      <c r="C792" s="41"/>
+      <c r="D792" s="42"/>
+      <c r="E792" s="50"/>
+      <c r="F792" s="15"/>
+      <c r="G792" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H791" s="42"/>
-      <c r="I791" s="50"/>
-      <c r="J791" s="12"/>
-      <c r="K791" s="15"/>
+      <c r="H792" s="42"/>
+      <c r="I792" s="50"/>
+      <c r="J792" s="12"/>
+      <c r="K792" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="477">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2178,7 +2178,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K792" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K793" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2507,12 +2507,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K792"/>
+  <dimension ref="A2:K793"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3450" topLeftCell="A756" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="E774" sqref="E774"/>
+      <selection pane="bottomLeft" activeCell="K775" sqref="K775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19190,26 +19190,28 @@
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A775" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B775" s="20"/>
+      <c r="A775" s="40"/>
+      <c r="B775" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C775" s="13"/>
       <c r="D775" s="39"/>
       <c r="E775" s="9"/>
       <c r="F775" s="20"/>
-      <c r="G775" s="41" t="str">
+      <c r="G775" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H775" s="39"/>
       <c r="I775" s="9"/>
       <c r="J775" s="11"/>
-      <c r="K775" s="20"/>
+      <c r="K775" s="48">
+        <v>45140</v>
+      </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19227,7 +19229,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19245,7 +19247,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19263,7 +19265,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19281,7 +19283,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19299,7 +19301,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19317,7 +19319,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19335,7 +19337,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19353,7 +19355,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19371,7 +19373,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19389,7 +19391,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19407,7 +19409,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19425,7 +19427,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19443,7 +19445,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19461,7 +19463,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19479,7 +19481,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19497,21 +19499,39 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B792" s="20"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="39"/>
+      <c r="E792" s="9"/>
+      <c r="F792" s="20"/>
+      <c r="G792" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H792" s="39"/>
+      <c r="I792" s="9"/>
+      <c r="J792" s="11"/>
+      <c r="K792" s="20"/>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" s="40">
         <v>45716</v>
       </c>
-      <c r="B792" s="15"/>
-      <c r="C792" s="41"/>
-      <c r="D792" s="42"/>
-      <c r="E792" s="50"/>
-      <c r="F792" s="15"/>
-      <c r="G792" s="41" t="str">
+      <c r="B793" s="15"/>
+      <c r="C793" s="41"/>
+      <c r="D793" s="42"/>
+      <c r="E793" s="50"/>
+      <c r="F793" s="15"/>
+      <c r="G793" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H792" s="42"/>
-      <c r="I792" s="50"/>
-      <c r="J792" s="12"/>
-      <c r="K792" s="15"/>
+      <c r="H793" s="42"/>
+      <c r="I793" s="50"/>
+      <c r="J793" s="12"/>
+      <c r="K793" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="479">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1464,6 +1464,12 @@
   </si>
   <si>
     <t>8/4,7,8/2023</t>
+  </si>
+  <si>
+    <t>9/19,20/2023</t>
+  </si>
+  <si>
+    <t>10/2,3/2023</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2184,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K793" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K795" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2507,12 +2513,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K793"/>
+  <dimension ref="A2:L795"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3450" topLeftCell="A756" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="K775" sqref="K775"/>
+      <pane ySplit="3450" topLeftCell="A763" activePane="bottomLeft"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F784" sqref="F784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2536,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2551,7 +2557,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2569,7 +2575,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2589,7 +2595,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2597,7 +2603,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2610,7 +2616,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2627,7 +2633,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2671,7 +2677,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.684999999999917</v>
+        <v>53.184999999999917</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2681,12 +2687,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.62499999999997</v>
+        <v>107.12499999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -2704,7 +2711,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35612</v>
       </c>
@@ -2744,7 +2751,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35643</v>
       </c>
@@ -2764,7 +2771,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35674</v>
       </c>
@@ -2784,7 +2791,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35704</v>
       </c>
@@ -2804,7 +2811,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35735</v>
       </c>
@@ -19172,15 +19179,17 @@
       <c r="B774" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C774" s="13"/>
+      <c r="C774" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D774" s="39">
         <v>3</v>
       </c>
       <c r="E774" s="9"/>
       <c r="F774" s="20"/>
-      <c r="G774" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G774" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H774" s="39"/>
       <c r="I774" s="9"/>
@@ -19210,66 +19219,84 @@
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B776" s="20"/>
+      <c r="A776" s="40"/>
+      <c r="B776" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C776" s="13"/>
       <c r="D776" s="39"/>
       <c r="E776" s="9"/>
       <c r="F776" s="20"/>
-      <c r="G776" s="41" t="str">
+      <c r="G776" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H776" s="39"/>
+      <c r="H776" s="39">
+        <v>1</v>
+      </c>
       <c r="I776" s="9"/>
       <c r="J776" s="11"/>
-      <c r="K776" s="20"/>
+      <c r="K776" s="48">
+        <v>45148</v>
+      </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B777" s="20"/>
-      <c r="C777" s="13"/>
+        <v>45199</v>
+      </c>
+      <c r="B777" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C777" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D777" s="39"/>
       <c r="E777" s="9"/>
       <c r="F777" s="20"/>
-      <c r="G777" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H777" s="39"/>
+      <c r="G777" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H777" s="39">
+        <v>1</v>
+      </c>
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
-      <c r="K777" s="20"/>
+      <c r="K777" s="48">
+        <v>45175</v>
+      </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B778" s="20"/>
+      <c r="A778" s="40"/>
+      <c r="B778" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="C778" s="13"/>
       <c r="D778" s="39"/>
       <c r="E778" s="9"/>
       <c r="F778" s="20"/>
-      <c r="G778" s="41" t="str">
+      <c r="G778" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H778" s="39"/>
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
-      <c r="K778" s="20"/>
+      <c r="K778" s="48" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B779" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B779" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C779" s="13"/>
-      <c r="D779" s="39"/>
+      <c r="D779" s="39">
+        <v>2</v>
+      </c>
       <c r="E779" s="9"/>
       <c r="F779" s="20"/>
       <c r="G779" s="41" t="str">
@@ -19279,11 +19306,13 @@
       <c r="H779" s="39"/>
       <c r="I779" s="9"/>
       <c r="J779" s="11"/>
-      <c r="K779" s="20"/>
+      <c r="K779" s="20" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>45322</v>
+        <v>45260</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19301,7 +19330,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19319,7 +19348,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19337,7 +19366,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19355,7 +19384,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19373,7 +19402,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19391,7 +19420,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19409,7 +19438,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19427,7 +19456,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19445,7 +19474,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19463,7 +19492,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19481,7 +19510,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19499,7 +19528,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19517,21 +19546,57 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B793" s="20"/>
+      <c r="C793" s="13"/>
+      <c r="D793" s="39"/>
+      <c r="E793" s="9"/>
+      <c r="F793" s="20"/>
+      <c r="G793" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H793" s="39"/>
+      <c r="I793" s="9"/>
+      <c r="J793" s="11"/>
+      <c r="K793" s="20"/>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A794" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B794" s="20"/>
+      <c r="C794" s="13"/>
+      <c r="D794" s="39"/>
+      <c r="E794" s="9"/>
+      <c r="F794" s="20"/>
+      <c r="G794" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H794" s="39"/>
+      <c r="I794" s="9"/>
+      <c r="J794" s="11"/>
+      <c r="K794" s="20"/>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795" s="40">
         <v>45716</v>
       </c>
-      <c r="B793" s="15"/>
-      <c r="C793" s="41"/>
-      <c r="D793" s="42"/>
-      <c r="E793" s="50"/>
-      <c r="F793" s="15"/>
-      <c r="G793" s="41" t="str">
+      <c r="B795" s="15"/>
+      <c r="C795" s="41"/>
+      <c r="D795" s="42"/>
+      <c r="E795" s="50"/>
+      <c r="F795" s="15"/>
+      <c r="G795" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H793" s="42"/>
-      <c r="I793" s="50"/>
-      <c r="J793" s="12"/>
-      <c r="K793" s="15"/>
+      <c r="H795" s="42"/>
+      <c r="I795" s="50"/>
+      <c r="J795" s="12"/>
+      <c r="K795" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -2187,7 +2187,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K796" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K797" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2516,12 +2516,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L796"/>
+  <dimension ref="A2:L797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3450" topLeftCell="A422" activePane="bottomLeft"/>
+      <pane ySplit="3450" topLeftCell="A641" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G433" sqref="G433"/>
+      <selection pane="bottomLeft" activeCell="E784" sqref="E784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2680,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.684999999999917</v>
+        <v>21.59400000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2690,7 +2690,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>77.624999999999972</v>
+        <v>58.576000000000334</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6938,14 +6938,14 @@
         <v>127</v>
       </c>
       <c r="C203" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D203" s="39"/>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
       <c r="G203" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H203" s="39"/>
       <c r="I203" s="9"/>
@@ -7019,14 +7019,14 @@
         <v>54</v>
       </c>
       <c r="C207" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D207" s="39"/>
       <c r="E207" s="9"/>
       <c r="F207" s="20"/>
       <c r="G207" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H207" s="39">
         <v>1</v>
@@ -7111,14 +7111,14 @@
         <v>54</v>
       </c>
       <c r="C211" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D211" s="39"/>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
       <c r="G211" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H211" s="39">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>170</v>
       </c>
       <c r="C215" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D215" s="39">
         <v>6.75</v>
@@ -7207,7 +7207,7 @@
       <c r="F215" s="20"/>
       <c r="G215" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H215" s="39">
         <v>1.25</v>
@@ -7245,7 +7245,7 @@
         <v>173</v>
       </c>
       <c r="C217" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D217" s="39">
         <v>7.75</v>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="G217" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H217" s="39">
         <v>1.25</v>
@@ -7275,14 +7275,14 @@
         <v>55</v>
       </c>
       <c r="C218" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D218" s="39"/>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
       <c r="G218" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H218" s="39">
         <v>2</v>
@@ -7339,7 +7339,7 @@
         <v>116</v>
       </c>
       <c r="C221" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D221" s="39">
         <v>0.5</v>
@@ -7385,7 +7385,7 @@
         <v>77</v>
       </c>
       <c r="C223" s="13">
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="D223" s="39">
         <v>1</v>
@@ -7394,7 +7394,7 @@
       <c r="F223" s="20"/>
       <c r="G223" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="H223" s="39">
         <v>1</v>
@@ -7723,14 +7723,14 @@
         <v>45</v>
       </c>
       <c r="C238" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
       <c r="G238" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
@@ -7855,14 +7855,14 @@
         <v>45</v>
       </c>
       <c r="C244" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
       <c r="G244" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
@@ -7967,14 +7967,14 @@
         <v>54</v>
       </c>
       <c r="C249" s="13">
-        <v>1.25</v>
+        <v>0.70800000000000007</v>
       </c>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
       <c r="G249" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.70800000000000007</v>
       </c>
       <c r="H249" s="39">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>72</v>
       </c>
       <c r="C255" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D255" s="39">
         <v>1</v>
@@ -8113,7 +8113,7 @@
       <c r="F255" s="20"/>
       <c r="G255" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
@@ -8346,14 +8346,14 @@
         <v>55</v>
       </c>
       <c r="C266" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D266" s="39"/>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
       <c r="G266" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
@@ -8416,7 +8416,7 @@
         <v>97</v>
       </c>
       <c r="C269" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D269" s="39">
         <v>0.25</v>
@@ -8425,7 +8425,7 @@
       <c r="F269" s="20"/>
       <c r="G269" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H269" s="39">
         <v>3.75</v>
@@ -8551,14 +8551,14 @@
         <v>54</v>
       </c>
       <c r="C275" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
       <c r="G275" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H275" s="39">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>77</v>
       </c>
       <c r="C278" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D278" s="39">
         <v>1</v>
@@ -8626,7 +8626,7 @@
       <c r="F278" s="20"/>
       <c r="G278" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H278" s="39">
         <v>1</v>
@@ -8957,7 +8957,7 @@
         <v>77</v>
       </c>
       <c r="C293" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D293" s="39">
         <v>2</v>
@@ -8966,7 +8966,7 @@
       <c r="F293" s="20"/>
       <c r="G293" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
@@ -9002,14 +9002,14 @@
         <v>54</v>
       </c>
       <c r="C295" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
       <c r="G295" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H295" s="39">
         <v>1</v>
@@ -9066,14 +9066,14 @@
         <v>54</v>
       </c>
       <c r="C298" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
       <c r="G298" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H298" s="39">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>224</v>
       </c>
       <c r="C301" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D301" s="39">
         <v>4.0000000000000001E-3</v>
@@ -9141,7 +9141,7 @@
       <c r="F301" s="20"/>
       <c r="G301" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
@@ -9196,14 +9196,14 @@
         <v>54</v>
       </c>
       <c r="C304" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
       <c r="G304" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
@@ -9279,14 +9279,14 @@
         <v>54</v>
       </c>
       <c r="C308" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
       <c r="G308" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
@@ -9322,14 +9322,14 @@
         <v>54</v>
       </c>
       <c r="C310" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
       <c r="G310" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H310" s="39">
         <v>1</v>
@@ -9539,7 +9539,7 @@
         <v>45</v>
       </c>
       <c r="C320" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D320" s="39">
         <v>1.75</v>
@@ -9548,7 +9548,7 @@
       <c r="F320" s="20"/>
       <c r="G320" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H320" s="39">
         <v>0.25</v>
@@ -9607,7 +9607,7 @@
         <v>55</v>
       </c>
       <c r="C323" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D323" s="39">
         <v>0.75</v>
@@ -9616,7 +9616,7 @@
       <c r="F323" s="20"/>
       <c r="G323" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H323" s="39">
         <v>1.25</v>
@@ -9694,7 +9694,7 @@
         <v>235</v>
       </c>
       <c r="C327" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D327" s="39">
         <v>1.25</v>
@@ -9703,7 +9703,7 @@
       <c r="F327" s="20"/>
       <c r="G327" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H327" s="39">
         <v>1.25</v>
@@ -9796,14 +9796,14 @@
         <v>54</v>
       </c>
       <c r="C332" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D332" s="39"/>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
       <c r="G332" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
@@ -9877,14 +9877,14 @@
         <v>55</v>
       </c>
       <c r="C336" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D336" s="39"/>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
       <c r="G336" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
@@ -9937,14 +9937,14 @@
         <v>81</v>
       </c>
       <c r="C339" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D339" s="39"/>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
       <c r="G339" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
@@ -9982,14 +9982,14 @@
         <v>45</v>
       </c>
       <c r="C341" s="13">
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="D341" s="39"/>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
       <c r="G341" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
@@ -10084,14 +10084,14 @@
         <v>54</v>
       </c>
       <c r="C346" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
       <c r="G346" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
@@ -10152,14 +10152,14 @@
         <v>54</v>
       </c>
       <c r="C349" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
       <c r="G349" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H349" s="39">
         <v>1</v>
@@ -10263,7 +10263,7 @@
         <v>77</v>
       </c>
       <c r="C354" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D354" s="39">
         <v>0.75</v>
@@ -10272,7 +10272,7 @@
       <c r="F354" s="20"/>
       <c r="G354" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H354" s="39">
         <v>1.25</v>
@@ -10395,14 +10395,14 @@
         <v>251</v>
       </c>
       <c r="C360" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
       <c r="G360" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
@@ -10459,7 +10459,7 @@
         <v>77</v>
       </c>
       <c r="C363" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D363" s="39">
         <v>0.75</v>
@@ -10468,7 +10468,7 @@
       <c r="F363" s="20"/>
       <c r="G363" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H363" s="39">
         <v>1.25</v>
@@ -10542,7 +10542,7 @@
         <v>252</v>
       </c>
       <c r="C367" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D367" s="39">
         <v>1.25</v>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="G367" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
@@ -10570,7 +10570,7 @@
         <v>81</v>
       </c>
       <c r="C368" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D368" s="39">
         <v>1.25</v>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="G368" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H368" s="39">
         <v>1.25</v>
@@ -10674,14 +10674,14 @@
         <v>70</v>
       </c>
       <c r="C373" s="13">
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D373" s="39"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
       <c r="G373" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
@@ -10755,14 +10755,14 @@
         <v>54</v>
       </c>
       <c r="C377" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
       <c r="G377" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H377" s="39">
         <v>1</v>
@@ -10861,14 +10861,14 @@
         <v>235</v>
       </c>
       <c r="C382" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
       <c r="G382" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H382" s="39">
         <v>1.25</v>
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="C387" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D387" s="39">
         <v>0.75</v>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="G387" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H387" s="39">
         <v>0.25</v>
@@ -11046,7 +11046,7 @@
         <v>72</v>
       </c>
       <c r="C391" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D391" s="39">
         <v>1</v>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="G391" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
@@ -11129,7 +11129,7 @@
         <v>77</v>
       </c>
       <c r="C395" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D395" s="39">
         <v>0.75</v>
@@ -11138,7 +11138,7 @@
       <c r="F395" s="20"/>
       <c r="G395" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H395" s="39">
         <v>1.25</v>
@@ -11246,14 +11246,14 @@
         <v>54</v>
       </c>
       <c r="C401" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
       <c r="G401" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H401" s="39">
         <v>1</v>
@@ -11327,7 +11327,7 @@
         <v>81</v>
       </c>
       <c r="C405" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D405" s="39">
         <v>1.25</v>
@@ -11336,7 +11336,7 @@
       <c r="F405" s="20"/>
       <c r="G405" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H405" s="39">
         <v>1.25</v>
@@ -11459,7 +11459,7 @@
         <v>50</v>
       </c>
       <c r="C411" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D411" s="39"/>
       <c r="E411" s="9"/>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="G411" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H411" s="39"/>
       <c r="I411" s="9"/>
@@ -11540,14 +11540,14 @@
         <v>45</v>
       </c>
       <c r="C415" s="13">
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D415" s="39"/>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
       <c r="G415" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H415" s="39"/>
       <c r="I415" s="9"/>
@@ -11604,7 +11604,7 @@
         <v>48</v>
       </c>
       <c r="C418" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D418" s="39">
         <v>1.25</v>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="G418" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
@@ -11649,14 +11649,14 @@
         <v>54</v>
       </c>
       <c r="C420" s="13">
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="D420" s="39"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
       <c r="G420" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H420" s="39">
         <v>1</v>
@@ -11732,14 +11732,14 @@
         <v>54</v>
       </c>
       <c r="C424" s="13">
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
       <c r="G424" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
@@ -11832,7 +11832,7 @@
         <v>77</v>
       </c>
       <c r="C429" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D429" s="39">
         <v>0.75</v>
@@ -11841,7 +11841,7 @@
       <c r="F429" s="20"/>
       <c r="G429" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H429" s="39">
         <v>1.25</v>
@@ -11917,14 +11917,14 @@
         <v>54</v>
       </c>
       <c r="C433" s="13">
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D433" s="39"/>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
       <c r="G433" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H433" s="39">
         <v>1</v>
@@ -12019,14 +12019,14 @@
         <v>54</v>
       </c>
       <c r="C438" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D438" s="39"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
       <c r="G438" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H438" s="39">
         <v>1</v>
@@ -12126,14 +12126,14 @@
         <v>45</v>
       </c>
       <c r="C443" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D443" s="39"/>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
       <c r="G443" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H443" s="39">
         <v>3</v>
@@ -12209,14 +12209,14 @@
         <v>54</v>
       </c>
       <c r="C447" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D447" s="39"/>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
       <c r="G447" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H447" s="39">
         <v>1</v>
@@ -12332,14 +12332,14 @@
         <v>127</v>
       </c>
       <c r="C453" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D453" s="39"/>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
       <c r="G453" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
@@ -12432,14 +12432,14 @@
         <v>54</v>
       </c>
       <c r="C458" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D458" s="39"/>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
       <c r="G458" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H458" s="39">
         <v>1</v>
@@ -12492,7 +12492,7 @@
         <v>77</v>
       </c>
       <c r="C461" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D461" s="39"/>
       <c r="E461" s="9"/>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="G461" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H461" s="39">
         <v>1.25</v>
@@ -12581,7 +12581,7 @@
         <v>55</v>
       </c>
       <c r="C465" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D465" s="39">
         <v>0.5</v>
@@ -12590,7 +12590,7 @@
       <c r="F465" s="20"/>
       <c r="G465" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
@@ -12664,14 +12664,14 @@
         <v>300</v>
       </c>
       <c r="C469" s="13">
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="D469" s="39"/>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
       <c r="G469" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
@@ -12726,14 +12726,14 @@
         <v>55</v>
       </c>
       <c r="C472" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D472" s="39"/>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
       <c r="G472" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H472" s="39"/>
       <c r="I472" s="9"/>
@@ -12790,14 +12790,14 @@
         <v>55</v>
       </c>
       <c r="C475" s="13">
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D475" s="39"/>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
       <c r="G475" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H475" s="39"/>
       <c r="I475" s="9"/>
@@ -12854,7 +12854,7 @@
         <v>61</v>
       </c>
       <c r="C478" s="13">
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D478" s="39"/>
       <c r="E478" s="9"/>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="G478" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
@@ -12937,14 +12937,14 @@
         <v>54</v>
       </c>
       <c r="C482" s="13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D482" s="39"/>
       <c r="E482" s="9"/>
       <c r="F482" s="20"/>
       <c r="G482" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H482" s="39"/>
       <c r="I482" s="9"/>
@@ -12982,14 +12982,14 @@
         <v>54</v>
       </c>
       <c r="C484" s="13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
       <c r="G484" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
@@ -13084,14 +13084,14 @@
         <v>61</v>
       </c>
       <c r="C489" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D489" s="39"/>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
       <c r="G489" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H489" s="39"/>
       <c r="I489" s="9"/>
@@ -13129,14 +13129,14 @@
         <v>54</v>
       </c>
       <c r="C491" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
       <c r="G491" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H491" s="39"/>
       <c r="I491" s="9"/>
@@ -13239,14 +13239,14 @@
         <v>251</v>
       </c>
       <c r="C496" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D496" s="39"/>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
       <c r="G496" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
@@ -13322,14 +13322,14 @@
         <v>54</v>
       </c>
       <c r="C500" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D500" s="39"/>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
       <c r="G500" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H500" s="39"/>
       <c r="I500" s="9"/>
@@ -13422,14 +13422,14 @@
         <v>54</v>
       </c>
       <c r="C505" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
       <c r="G505" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
@@ -13467,7 +13467,7 @@
         <v>61</v>
       </c>
       <c r="C507" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D507" s="39"/>
       <c r="E507" s="9"/>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="G507" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
@@ -13569,14 +13569,14 @@
         <v>55</v>
       </c>
       <c r="C512" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
@@ -13633,7 +13633,7 @@
         <v>72</v>
       </c>
       <c r="C515" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="G515" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
@@ -13697,14 +13697,14 @@
         <v>54</v>
       </c>
       <c r="C518" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
       <c r="G518" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
@@ -13761,7 +13761,7 @@
         <v>61</v>
       </c>
       <c r="C521" s="13">
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
@@ -13770,7 +13770,7 @@
       </c>
       <c r="G521" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
@@ -13901,7 +13901,7 @@
         <v>72</v>
       </c>
       <c r="C528" s="13">
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="G528" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
@@ -14041,14 +14041,14 @@
         <v>55</v>
       </c>
       <c r="C535" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
       <c r="G535" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
@@ -14086,7 +14086,7 @@
         <v>50</v>
       </c>
       <c r="C537" s="13">
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="G537" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
@@ -14150,7 +14150,7 @@
         <v>61</v>
       </c>
       <c r="C540" s="13">
-        <v>1.25</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="G540" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
@@ -14282,14 +14282,14 @@
         <v>127</v>
       </c>
       <c r="C546" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
       <c r="G546" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
@@ -14361,14 +14361,14 @@
         <v>70</v>
       </c>
       <c r="C550" s="13">
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="D550" s="39"/>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
@@ -14425,14 +14425,14 @@
         <v>55</v>
       </c>
       <c r="C553" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
       <c r="G553" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
@@ -14451,14 +14451,14 @@
         <v>70</v>
       </c>
       <c r="C554" s="13">
-        <v>1.25</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="D554" s="39"/>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
@@ -14553,7 +14553,7 @@
         <v>61</v>
       </c>
       <c r="C559" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="G559" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
@@ -14636,14 +14636,14 @@
         <v>55</v>
       </c>
       <c r="C563" s="13">
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
       <c r="G563" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
@@ -14721,14 +14721,14 @@
         <v>54</v>
       </c>
       <c r="C567" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
@@ -14785,14 +14785,14 @@
         <v>54</v>
       </c>
       <c r="C570" s="13">
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
       <c r="G570" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
@@ -14887,14 +14887,14 @@
         <v>54</v>
       </c>
       <c r="C575" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
@@ -14932,7 +14932,7 @@
         <v>61</v>
       </c>
       <c r="C577" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="G577" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
@@ -15034,14 +15034,14 @@
         <v>54</v>
       </c>
       <c r="C582" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
       <c r="G582" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
@@ -15079,7 +15079,7 @@
         <v>61</v>
       </c>
       <c r="C584" s="13">
-        <v>1.25</v>
+        <v>0.70800000000000007</v>
       </c>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="G584" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.70800000000000007</v>
       </c>
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
@@ -15356,14 +15356,14 @@
         <v>55</v>
       </c>
       <c r="C597" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D597" s="39"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
       <c r="G597" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H597" s="39">
         <v>1.5</v>
@@ -15441,14 +15441,14 @@
         <v>54</v>
       </c>
       <c r="C601" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
       <c r="G601" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H601" s="39">
         <v>1</v>
@@ -15524,14 +15524,14 @@
         <v>54</v>
       </c>
       <c r="C605" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D605" s="39"/>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
       <c r="G605" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H605" s="39">
         <v>1</v>
@@ -15588,7 +15588,7 @@
         <v>72</v>
       </c>
       <c r="C608" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D608" s="39">
         <v>1</v>
@@ -15597,7 +15597,7 @@
       <c r="F608" s="20"/>
       <c r="G608" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
@@ -15691,14 +15691,14 @@
         <v>54</v>
       </c>
       <c r="C613" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D613" s="39"/>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
       <c r="G613" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H613" s="39">
         <v>1</v>
@@ -15772,14 +15772,14 @@
         <v>54</v>
       </c>
       <c r="C617" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
       <c r="G617" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
@@ -15817,14 +15817,14 @@
         <v>54</v>
       </c>
       <c r="C619" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D619" s="39"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
       <c r="G619" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
@@ -15930,13 +15930,15 @@
       <c r="B624" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C624" s="13"/>
+      <c r="C624" s="13">
+        <v>1.0420000000000003</v>
+      </c>
       <c r="D624" s="39"/>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G624" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
@@ -15976,13 +15978,15 @@
       <c r="B626" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C626" s="13"/>
+      <c r="C626" s="13">
+        <v>1.1250000000000002</v>
+      </c>
       <c r="D626" s="39"/>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G626" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H626" s="39"/>
       <c r="I626" s="9"/>
@@ -16000,13 +16004,15 @@
       <c r="B627" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C627" s="13"/>
+      <c r="C627" s="13">
+        <v>0.45799999999999985</v>
+      </c>
       <c r="D627" s="39"/>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G627" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.45799999999999985</v>
       </c>
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
@@ -16024,13 +16030,15 @@
       <c r="B628" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C628" s="13"/>
+      <c r="C628" s="13">
+        <v>0.41699999999999982</v>
+      </c>
       <c r="D628" s="39"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G628" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.41699999999999982</v>
       </c>
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
@@ -16046,13 +16054,15 @@
       <c r="B629" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C629" s="13"/>
+      <c r="C629" s="13">
+        <v>1.2080000000000002</v>
+      </c>
       <c r="D629" s="39"/>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G629" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
@@ -16153,14 +16163,14 @@
         <v>55</v>
       </c>
       <c r="C634" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
       <c r="G634" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
@@ -16201,14 +16211,14 @@
         <v>45</v>
       </c>
       <c r="C636" s="13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
       <c r="G636" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
@@ -16249,14 +16259,14 @@
         <v>55</v>
       </c>
       <c r="C638" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
       <c r="G638" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
@@ -16297,14 +16307,14 @@
         <v>55</v>
       </c>
       <c r="C640" s="13">
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="D640" s="39"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
       <c r="G640" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
@@ -16399,14 +16409,14 @@
         <v>54</v>
       </c>
       <c r="C645" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D645" s="39"/>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
       <c r="G645" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
@@ -16482,14 +16492,14 @@
         <v>54</v>
       </c>
       <c r="C649" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
       <c r="G649" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
@@ -16546,7 +16556,7 @@
         <v>54</v>
       </c>
       <c r="C652" s="13">
-        <v>1.25</v>
+        <v>0.24999999999999978</v>
       </c>
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
@@ -16632,14 +16642,14 @@
         <v>55</v>
       </c>
       <c r="C656" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D656" s="39"/>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
       <c r="G656" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
@@ -16696,14 +16706,14 @@
         <v>54</v>
       </c>
       <c r="C659" s="13">
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
       <c r="G659" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.87500000000000022</v>
       </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
@@ -16779,14 +16789,14 @@
         <v>55</v>
       </c>
       <c r="C663" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D663" s="39"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
       <c r="G663" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
@@ -16805,14 +16815,14 @@
         <v>55</v>
       </c>
       <c r="C664" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
       <c r="G664" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
@@ -16849,14 +16859,14 @@
         <v>45</v>
       </c>
       <c r="C666" s="13">
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="D666" s="39"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
       <c r="G666" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.91700000000000026</v>
       </c>
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
@@ -16926,11 +16936,9 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>43525</v>
-      </c>
-      <c r="B670" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>43497</v>
+      </c>
+      <c r="B670" s="20"/>
       <c r="C670" s="13">
         <v>1.25</v>
       </c>
@@ -16943,55 +16951,51 @@
       </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
-      <c r="J670" s="11">
-        <v>3</v>
-      </c>
-      <c r="K670" s="20" t="s">
-        <v>421</v>
-      </c>
+      <c r="J670" s="11"/>
+      <c r="K670" s="48"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B671" s="20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C671" s="13">
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
       <c r="G671" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K671" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B672" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C672" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D672" s="39"/>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
       <c r="G672" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H672" s="39"/>
       <c r="I672" s="9"/>
@@ -16999,111 +17003,115 @@
         <v>5</v>
       </c>
       <c r="K672" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40"/>
+      <c r="A673" s="40">
+        <v>43586</v>
+      </c>
       <c r="B673" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C673" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C673" s="13">
+        <v>0.9580000000000003</v>
+      </c>
       <c r="D673" s="39"/>
       <c r="E673" s="9"/>
       <c r="F673" s="20"/>
-      <c r="G673" s="13"/>
+      <c r="G673" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.9580000000000003</v>
+      </c>
       <c r="H673" s="39"/>
       <c r="I673" s="9"/>
       <c r="J673" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K673" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="40">
-        <v>43617</v>
-      </c>
+      <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C674" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C674" s="13"/>
       <c r="D674" s="39"/>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
-      <c r="G674" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G674" s="13"/>
       <c r="H674" s="39"/>
       <c r="I674" s="9"/>
       <c r="J674" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K674" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40"/>
+      <c r="A675" s="40">
+        <v>43617</v>
+      </c>
       <c r="B675" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C675" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="C675" s="13">
+        <v>0.70800000000000007</v>
+      </c>
       <c r="D675" s="39"/>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="13"/>
+      <c r="G675" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.70800000000000007</v>
+      </c>
       <c r="H675" s="39"/>
       <c r="I675" s="9"/>
       <c r="J675" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K675" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40">
-        <v>43647</v>
-      </c>
+      <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C676" s="13">
-        <v>1.25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C676" s="13"/>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G676" s="13"/>
       <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K676" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40"/>
+      <c r="A677" s="40">
+        <v>43647</v>
+      </c>
       <c r="B677" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C677" s="13"/>
+      <c r="C677" s="13">
+        <v>0.9580000000000003</v>
+      </c>
       <c r="D677" s="39"/>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
-      <c r="G677" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G677" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H677" s="39"/>
       <c r="I677" s="9"/>
@@ -17111,13 +17119,13 @@
         <v>3</v>
       </c>
       <c r="K677" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C678" s="13"/>
       <c r="D678" s="39"/>
@@ -17130,28 +17138,24 @@
       <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11">
-        <v>1</v>
-      </c>
-      <c r="K678" s="48">
-        <v>43676</v>
+        <v>3</v>
+      </c>
+      <c r="K678" s="20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40">
-        <v>43678</v>
-      </c>
+      <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C679" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C679" s="13"/>
       <c r="D679" s="39"/>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G679" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H679" s="39"/>
       <c r="I679" s="9"/>
@@ -17159,21 +17163,25 @@
         <v>1</v>
       </c>
       <c r="K679" s="48">
-        <v>43684</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40"/>
+      <c r="A680" s="40">
+        <v>43678</v>
+      </c>
       <c r="B680" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C680" s="13"/>
+      <c r="C680" s="13">
+        <v>1.1250000000000002</v>
+      </c>
       <c r="D680" s="39"/>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G680" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H680" s="39"/>
       <c r="I680" s="9"/>
@@ -17181,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="K680" s="48">
-        <v>43704</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
@@ -17203,183 +17211,183 @@
         <v>1</v>
       </c>
       <c r="K681" s="48">
-        <v>43707</v>
+        <v>43704</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="40">
-        <v>43709</v>
-      </c>
+      <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C682" s="13">
-        <v>1.25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C682" s="13"/>
       <c r="D682" s="39"/>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G682" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H682" s="39"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11">
-        <v>2</v>
-      </c>
-      <c r="K682" s="20" t="s">
-        <v>429</v>
+        <v>1</v>
+      </c>
+      <c r="K682" s="48">
+        <v>43707</v>
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B683" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C683" s="13">
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="D683" s="39"/>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
       <c r="G683" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.1670000000000003</v>
       </c>
       <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11">
-        <v>1</v>
-      </c>
-      <c r="K683" s="48">
-        <v>43746</v>
+        <v>2</v>
+      </c>
+      <c r="K683" s="20" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B684" s="20" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C684" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D684" s="39"/>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
       <c r="G684" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11">
-        <v>4</v>
-      </c>
-      <c r="K684" s="20" t="s">
-        <v>430</v>
+        <v>1</v>
+      </c>
+      <c r="K684" s="48">
+        <v>43746</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B685" s="20" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C685" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D685" s="39"/>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
       <c r="G685" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K685" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40"/>
+      <c r="A686" s="40">
+        <v>43800</v>
+      </c>
       <c r="B686" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C686" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C686" s="13">
+        <v>1.0420000000000003</v>
+      </c>
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
       <c r="F686" s="20"/>
-      <c r="G686" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G686" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H686" s="39"/>
       <c r="I686" s="9"/>
       <c r="J686" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K686" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="B687" s="20"/>
-      <c r="C687" s="13"/>
+      <c r="A687" s="40"/>
+      <c r="B687" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C687" s="13">
+        <v>1.1250000000000002</v>
+      </c>
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G687" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H687" s="39"/>
       <c r="I687" s="9"/>
-      <c r="J687" s="11"/>
-      <c r="K687" s="20"/>
+      <c r="J687" s="11">
+        <v>3</v>
+      </c>
+      <c r="K687" s="20" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B688" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C688" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A688" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="B688" s="20"/>
+      <c r="C688" s="13"/>
       <c r="D688" s="39"/>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G688" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
-      <c r="K688" s="48" t="s">
-        <v>434</v>
-      </c>
+      <c r="K688" s="20"/>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B689" s="20" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C689" s="13">
         <v>1.25</v>
@@ -17394,60 +17402,60 @@
       <c r="H689" s="39"/>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
-      <c r="K689" s="48">
-        <v>43874</v>
+      <c r="K689" s="48" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40"/>
+      <c r="A690" s="40">
+        <v>43862</v>
+      </c>
       <c r="B690" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C690" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="C690" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13"/>
-      <c r="H690" s="39">
-        <v>1</v>
-      </c>
+      <c r="G690" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H690" s="39"/>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="48">
-        <v>43907</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A691" s="40">
-        <v>43891</v>
-      </c>
+      <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C691" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C691" s="13"/>
       <c r="D691" s="39"/>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
-      <c r="G691" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G691" s="13"/>
       <c r="H691" s="39">
         <v>1</v>
       </c>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
       <c r="K691" s="48">
-        <v>43908</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B692" s="20"/>
+        <v>43891</v>
+      </c>
+      <c r="B692" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C692" s="13">
         <v>1.25</v>
       </c>
@@ -17464,12 +17472,12 @@
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
       <c r="K692" s="48">
-        <v>44004</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13">
@@ -17482,14 +17490,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H693" s="39"/>
+      <c r="H693" s="39">
+        <v>1</v>
+      </c>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
-      <c r="K693" s="20"/>
+      <c r="K693" s="48">
+        <v>44004</v>
+      </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13">
@@ -17509,7 +17521,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13">
@@ -17529,7 +17541,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13">
@@ -17549,7 +17561,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13">
@@ -17569,17 +17581,13 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B698" s="20" t="s">
-        <v>61</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="B698" s="20"/>
       <c r="C698" s="13">
         <v>1.25</v>
       </c>
-      <c r="D698" s="39">
-        <v>2</v>
-      </c>
+      <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
       <c r="G698" s="41">
@@ -17589,89 +17597,96 @@
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20" t="s">
-        <v>435</v>
-      </c>
+      <c r="K698" s="20"/>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A699" s="40"/>
-      <c r="B699" s="20"/>
+      <c r="A699" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B699" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C699" s="13">
         <v>1.25</v>
       </c>
-      <c r="D699" s="39"/>
+      <c r="D699" s="39">
+        <v>2</v>
+      </c>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13"/>
+      <c r="G699" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
-      <c r="K699" s="20"/>
+      <c r="K699" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B700" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A700" s="40"/>
+      <c r="B700" s="20"/>
       <c r="C700" s="13">
         <v>1.25</v>
       </c>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H700" s="39">
-        <v>2</v>
-      </c>
+      <c r="G700" s="13"/>
+      <c r="H700" s="39"/>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
-      <c r="K700" s="20" t="s">
-        <v>436</v>
-      </c>
+      <c r="K700" s="20"/>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A701" s="40"/>
+      <c r="A701" s="40">
+        <v>44136</v>
+      </c>
       <c r="B701" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C701" s="13"/>
+      <c r="C701" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13"/>
+      <c r="G701" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H701" s="39">
         <v>2</v>
       </c>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
       <c r="K701" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
-      <c r="B702" s="20"/>
-      <c r="C702" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B702" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C702" s="13"/>
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
       <c r="G702" s="13"/>
-      <c r="H702" s="39"/>
+      <c r="H702" s="39">
+        <v>2</v>
+      </c>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
-      <c r="K702" s="20"/>
+      <c r="K702" s="20" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="40">
-        <v>44166</v>
-      </c>
+      <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13">
         <v>1.25</v>
@@ -17679,40 +17694,38 @@
       <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G703" s="13"/>
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="47" t="s">
-        <v>438</v>
+      <c r="A704" s="40">
+        <v>44166</v>
       </c>
       <c r="B704" s="20"/>
-      <c r="C704" s="13"/>
+      <c r="C704" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="41"/>
+      <c r="G704" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B705" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C705" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A705" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
@@ -17720,16 +17733,14 @@
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
-      <c r="K705" s="48">
-        <v>44208</v>
-      </c>
+      <c r="K705" s="20"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B706" s="20" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C706" s="13">
         <v>1.25</v>
@@ -17737,146 +17748,145 @@
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
       <c r="F706" s="20"/>
-      <c r="G706" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G706" s="41"/>
       <c r="H706" s="39"/>
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
-      <c r="K706" s="20" t="s">
-        <v>439</v>
+      <c r="K706" s="48">
+        <v>44208</v>
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="40"/>
+      <c r="A707" s="40">
+        <v>44228</v>
+      </c>
       <c r="B707" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C707" s="13"/>
-      <c r="D707" s="39">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C707" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D707" s="39"/>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13"/>
+      <c r="G707" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
-      <c r="K707" s="20"/>
+      <c r="K707" s="20" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C708" s="13"/>
-      <c r="D708" s="39"/>
+      <c r="D708" s="39">
+        <v>2</v>
+      </c>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
       <c r="G708" s="13"/>
-      <c r="H708" s="39">
-        <v>2</v>
-      </c>
+      <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
-      <c r="K708" s="20" t="s">
-        <v>440</v>
-      </c>
+      <c r="K708" s="20"/>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C709" s="13"/>
-      <c r="D709" s="39">
-        <v>2</v>
-      </c>
+      <c r="D709" s="39"/>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
       <c r="G709" s="13"/>
-      <c r="H709" s="39"/>
+      <c r="H709" s="39">
+        <v>2</v>
+      </c>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
       <c r="K709" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A710" s="40">
-        <v>44256</v>
-      </c>
+      <c r="A710" s="40"/>
       <c r="B710" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C710" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D710" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="C710" s="13"/>
+      <c r="D710" s="39">
+        <v>2</v>
+      </c>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
-      <c r="G710" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H710" s="39">
-        <v>5</v>
-      </c>
+      <c r="G710" s="13"/>
+      <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
       <c r="K710" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" s="40"/>
+      <c r="A711" s="40">
+        <v>44256</v>
+      </c>
       <c r="B711" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C711" s="13"/>
-      <c r="D711" s="39">
-        <v>0.5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C711" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D711" s="39"/>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
-      <c r="G711" s="13"/>
+      <c r="G711" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H711" s="39">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
       <c r="K711" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40">
-        <v>44287</v>
-      </c>
-      <c r="B712" s="20"/>
-      <c r="C712" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D712" s="39"/>
+      <c r="A712" s="40"/>
+      <c r="B712" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H712" s="39"/>
+      <c r="G712" s="13"/>
+      <c r="H712" s="39">
+        <v>2.5</v>
+      </c>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
-      <c r="K712" s="20"/>
+      <c r="K712" s="20" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>44317</v>
-      </c>
-      <c r="B713" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44287</v>
+      </c>
+      <c r="B713" s="20"/>
       <c r="C713" s="13">
         <v>1.25</v>
       </c>
@@ -17887,123 +17897,126 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H713" s="39">
-        <v>1</v>
-      </c>
+      <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="48">
-        <v>44326</v>
-      </c>
+      <c r="K713" s="20"/>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A714" s="40"/>
+      <c r="A714" s="40">
+        <v>44317</v>
+      </c>
       <c r="B714" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C714" s="13"/>
-      <c r="D714" s="39">
-        <v>0.75</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C714" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D714" s="39"/>
       <c r="E714" s="9"/>
       <c r="F714" s="20"/>
-      <c r="G714" s="13"/>
+      <c r="G714" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H714" s="39">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20" t="s">
-        <v>444</v>
+      <c r="K714" s="48">
+        <v>44326</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40">
-        <v>44348</v>
-      </c>
+      <c r="A715" s="40"/>
       <c r="B715" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C715" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D715" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39">
+        <v>0.75</v>
+      </c>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G715" s="13"/>
       <c r="H715" s="39">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="48">
-        <v>44377</v>
+      <c r="K715" s="20" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40"/>
+      <c r="A716" s="40">
+        <v>44348</v>
+      </c>
       <c r="B716" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C716" s="13"/>
-      <c r="D716" s="39">
-        <v>0.5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C716" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D716" s="39"/>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
-      <c r="G716" s="13"/>
+      <c r="G716" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H716" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="20"/>
+      <c r="K716" s="48">
+        <v>44377</v>
+      </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40">
-        <v>44378</v>
-      </c>
+      <c r="A717" s="40"/>
       <c r="B717" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C717" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D717" s="39"/>
+        <v>116</v>
+      </c>
+      <c r="C717" s="13"/>
+      <c r="D717" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
-      <c r="G717" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G717" s="13"/>
       <c r="H717" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40"/>
+      <c r="A718" s="40">
+        <v>44378</v>
+      </c>
       <c r="B718" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C718" s="13"/>
-      <c r="D718" s="39">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C718" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D718" s="39"/>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13"/>
-      <c r="H718" s="39"/>
+      <c r="G718" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H718" s="39">
+        <v>1</v>
+      </c>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20" t="s">
-        <v>445</v>
-      </c>
+      <c r="K718" s="20"/>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
@@ -18021,32 +18034,31 @@
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
       <c r="K719" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A720" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B720" s="20"/>
-      <c r="C720" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D720" s="39"/>
+      <c r="A720" s="40"/>
+      <c r="B720" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C720" s="13"/>
+      <c r="D720" s="39">
+        <v>2</v>
+      </c>
       <c r="E720" s="9"/>
       <c r="F720" s="20"/>
-      <c r="G720" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G720" s="13"/>
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
-      <c r="K720" s="20"/>
+      <c r="K720" s="20" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13">
@@ -18066,11 +18078,9 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>44470</v>
-      </c>
-      <c r="B722" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>44440</v>
+      </c>
+      <c r="B722" s="20"/>
       <c r="C722" s="13">
         <v>1.25</v>
       </c>
@@ -18081,77 +18091,80 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H722" s="39">
-        <v>3</v>
-      </c>
+      <c r="H722" s="39"/>
       <c r="I722" s="9"/>
       <c r="J722" s="11"/>
-      <c r="K722" s="20" t="s">
-        <v>447</v>
-      </c>
+      <c r="K722" s="20"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" s="40"/>
+      <c r="A723" s="40">
+        <v>44470</v>
+      </c>
       <c r="B723" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C723" s="13"/>
-      <c r="D723" s="39">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C723" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D723" s="39"/>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="13"/>
-      <c r="H723" s="39"/>
+      <c r="G723" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H723" s="39">
+        <v>3</v>
+      </c>
       <c r="I723" s="9"/>
       <c r="J723" s="11"/>
-      <c r="K723" s="48">
-        <v>44505</v>
+      <c r="K723" s="20" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40">
-        <v>44501</v>
-      </c>
+      <c r="A724" s="40"/>
       <c r="B724" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C724" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D724" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39">
+        <v>1</v>
+      </c>
       <c r="E724" s="9"/>
       <c r="F724" s="20"/>
-      <c r="G724" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H724" s="39">
-        <v>2</v>
-      </c>
+      <c r="G724" s="13"/>
+      <c r="H724" s="39"/>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
-      <c r="K724" s="20" t="s">
-        <v>448</v>
+      <c r="K724" s="48">
+        <v>44505</v>
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" s="40"/>
+      <c r="A725" s="40">
+        <v>44501</v>
+      </c>
       <c r="B725" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C725" s="13"/>
-      <c r="D725" s="39">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C725" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D725" s="39"/>
       <c r="E725" s="9"/>
       <c r="F725" s="20"/>
-      <c r="G725" s="13"/>
-      <c r="H725" s="39"/>
+      <c r="G725" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H725" s="39">
+        <v>2</v>
+      </c>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
       <c r="K725" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
@@ -18169,126 +18182,123 @@
       <c r="H726" s="39"/>
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
-      <c r="K726" s="20"/>
+      <c r="K726" s="20" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" s="40">
-        <v>44531</v>
-      </c>
+      <c r="A727" s="40"/>
       <c r="B727" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C727" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D727" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39">
+        <v>2</v>
+      </c>
       <c r="E727" s="9"/>
       <c r="F727" s="20"/>
-      <c r="G727" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H727" s="39">
-        <v>1</v>
-      </c>
+      <c r="G727" s="13"/>
+      <c r="H727" s="39"/>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
-      <c r="K727" s="52">
-        <v>44543</v>
-      </c>
+      <c r="K727" s="20"/>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" s="40"/>
+      <c r="A728" s="40">
+        <v>44531</v>
+      </c>
       <c r="B728" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C728" s="13"/>
-      <c r="D728" s="39">
-        <v>2.5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C728" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D728" s="39"/>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
-      <c r="G728" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G728" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H728" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
-      <c r="K728" s="20"/>
+      <c r="K728" s="52">
+        <v>44543</v>
+      </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="B729" s="20"/>
+      <c r="A729" s="40"/>
+      <c r="B729" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C729" s="13"/>
-      <c r="D729" s="39"/>
+      <c r="D729" s="39">
+        <v>2.5</v>
+      </c>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
       <c r="G729" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H729" s="39"/>
+      <c r="H729" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40">
-        <v>44562</v>
-      </c>
-      <c r="B730" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C730" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D730" s="39">
-        <v>2</v>
-      </c>
+      <c r="A730" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B730" s="20"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
       <c r="E730" s="9"/>
       <c r="F730" s="20"/>
-      <c r="G730" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G730" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H730" s="39"/>
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
-      <c r="K730" s="20" t="s">
-        <v>451</v>
-      </c>
+      <c r="K730" s="20"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B731" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C731" s="13"/>
+        <v>144</v>
+      </c>
+      <c r="C731" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D731" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E731" s="9"/>
       <c r="F731" s="20"/>
-      <c r="G731" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G731" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H731" s="39"/>
       <c r="I731" s="9"/>
       <c r="J731" s="11"/>
-      <c r="K731" s="48">
-        <v>44599</v>
+      <c r="K731" s="20" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" s="40"/>
+      <c r="A732" s="40">
+        <v>44593</v>
+      </c>
       <c r="B732" s="20" t="s">
         <v>72</v>
       </c>
@@ -18298,12 +18308,15 @@
       </c>
       <c r="E732" s="9"/>
       <c r="F732" s="20"/>
-      <c r="G732" s="13"/>
+      <c r="G732" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H732" s="39"/>
       <c r="I732" s="9"/>
       <c r="J732" s="11"/>
       <c r="K732" s="48">
-        <v>44615</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
@@ -18322,16 +18335,18 @@
       <c r="I733" s="9"/>
       <c r="J733" s="11"/>
       <c r="K733" s="48">
-        <v>44608</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C734" s="13"/>
-      <c r="D734" s="39"/>
+      <c r="D734" s="39">
+        <v>1</v>
+      </c>
       <c r="E734" s="9"/>
       <c r="F734" s="20"/>
       <c r="G734" s="13"/>
@@ -18339,65 +18354,63 @@
       <c r="I734" s="9"/>
       <c r="J734" s="11"/>
       <c r="K734" s="48">
-        <v>44616</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="40">
-        <v>44621</v>
-      </c>
+      <c r="A735" s="40"/>
       <c r="B735" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C735" s="13">
-        <v>1.25</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C735" s="13"/>
       <c r="D735" s="39"/>
       <c r="E735" s="9"/>
       <c r="F735" s="20"/>
-      <c r="G735" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H735" s="39">
-        <v>2</v>
-      </c>
+      <c r="G735" s="13"/>
+      <c r="H735" s="39"/>
       <c r="I735" s="9"/>
       <c r="J735" s="11"/>
-      <c r="K735" s="20" t="s">
-        <v>452</v>
+      <c r="K735" s="48">
+        <v>44616</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A736" s="40"/>
+      <c r="A736" s="40">
+        <v>44621</v>
+      </c>
       <c r="B736" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C736" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C736" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D736" s="39"/>
       <c r="E736" s="9"/>
       <c r="F736" s="20"/>
-      <c r="G736" s="13"/>
-      <c r="H736" s="39"/>
+      <c r="G736" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H736" s="39">
+        <v>2</v>
+      </c>
       <c r="I736" s="9"/>
       <c r="J736" s="11"/>
-      <c r="K736" s="20"/>
+      <c r="K736" s="20" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C737" s="13"/>
-      <c r="D737" s="39">
-        <v>1.5</v>
-      </c>
+      <c r="D737" s="39"/>
       <c r="E737" s="9"/>
       <c r="F737" s="20"/>
       <c r="G737" s="13"/>
-      <c r="H737" s="39">
-        <v>1.5</v>
-      </c>
+      <c r="H737" s="39"/>
       <c r="I737" s="9"/>
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
@@ -18405,89 +18418,87 @@
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C738" s="13"/>
       <c r="D738" s="39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E738" s="9"/>
       <c r="F738" s="20"/>
       <c r="G738" s="13"/>
-      <c r="H738" s="39"/>
+      <c r="H738" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I738" s="9"/>
       <c r="J738" s="11"/>
-      <c r="K738" s="20" t="s">
-        <v>453</v>
-      </c>
+      <c r="K738" s="20"/>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20" t="s">
-        <v>470</v>
+        <v>61</v>
       </c>
       <c r="C739" s="13"/>
       <c r="D739" s="39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E739" s="9"/>
       <c r="F739" s="20"/>
-      <c r="G739" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G739" s="13"/>
       <c r="H739" s="39"/>
       <c r="I739" s="9"/>
       <c r="J739" s="11"/>
       <c r="K739" s="20" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A740" s="40"/>
       <c r="B740" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C740" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D740" s="39"/>
+        <v>470</v>
+      </c>
+      <c r="C740" s="13"/>
+      <c r="D740" s="39">
+        <v>7</v>
+      </c>
       <c r="E740" s="9"/>
       <c r="F740" s="20"/>
-      <c r="G740" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H740" s="39">
-        <v>1</v>
-      </c>
+      <c r="G740" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H740" s="39"/>
       <c r="I740" s="9"/>
       <c r="J740" s="11"/>
-      <c r="K740" s="48">
-        <v>44658</v>
+      <c r="K740" s="20" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A741" s="40"/>
+      <c r="A741" s="40">
+        <v>44652</v>
+      </c>
       <c r="B741" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C741" s="13"/>
-      <c r="D741" s="39">
-        <v>0.75</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C741" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D741" s="39"/>
       <c r="E741" s="9"/>
       <c r="F741" s="20"/>
-      <c r="G741" s="13"/>
+      <c r="G741" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H741" s="39">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I741" s="9"/>
       <c r="J741" s="11"/>
       <c r="K741" s="48">
-        <v>44673</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
@@ -18497,48 +18508,47 @@
       </c>
       <c r="C742" s="13"/>
       <c r="D742" s="39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E742" s="9"/>
       <c r="F742" s="20"/>
       <c r="G742" s="13"/>
-      <c r="H742" s="39"/>
+      <c r="H742" s="39">
+        <v>0.25</v>
+      </c>
       <c r="I742" s="9"/>
       <c r="J742" s="11"/>
       <c r="K742" s="48">
-        <v>44679</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20" t="s">
-        <v>473</v>
+        <v>116</v>
       </c>
       <c r="C743" s="13"/>
       <c r="D743" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E743" s="9"/>
       <c r="F743" s="20"/>
-      <c r="G743" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G743" s="13"/>
       <c r="H743" s="39"/>
       <c r="I743" s="9"/>
       <c r="J743" s="11"/>
-      <c r="K743" s="48" t="s">
-        <v>472</v>
+      <c r="K743" s="48">
+        <v>44679</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="39">
-        <v>0.11900000000000001</v>
+        <v>5</v>
       </c>
       <c r="E744" s="9"/>
       <c r="F744" s="20"/>
@@ -18549,45 +18559,43 @@
       <c r="H744" s="39"/>
       <c r="I744" s="9"/>
       <c r="J744" s="11"/>
-      <c r="K744" s="48"/>
+      <c r="K744" s="48" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A745" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A745" s="40"/>
       <c r="B745" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C745" s="13">
-        <v>1.25</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C745" s="13"/>
       <c r="D745" s="39">
-        <v>1.75</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="E745" s="9"/>
       <c r="F745" s="20"/>
-      <c r="G745" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H745" s="39">
-        <v>1.25</v>
-      </c>
+      <c r="G745" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H745" s="39"/>
       <c r="I745" s="9"/>
       <c r="J745" s="11"/>
-      <c r="K745" s="20"/>
+      <c r="K745" s="48"/>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B746" s="20" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C746" s="13">
         <v>1.25</v>
       </c>
-      <c r="D746" s="39"/>
+      <c r="D746" s="39">
+        <v>1.75</v>
+      </c>
       <c r="E746" s="9"/>
       <c r="F746" s="20"/>
       <c r="G746" s="41">
@@ -18595,105 +18603,107 @@
         <v>1.25</v>
       </c>
       <c r="H746" s="39">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I746" s="9"/>
       <c r="J746" s="11"/>
-      <c r="K746" s="48">
-        <v>44708</v>
-      </c>
+      <c r="K746" s="20"/>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A747" s="40"/>
+      <c r="A747" s="40">
+        <v>44713</v>
+      </c>
       <c r="B747" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C747" s="13"/>
-      <c r="D747" s="39">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C747" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D747" s="39"/>
       <c r="E747" s="9"/>
       <c r="F747" s="20"/>
-      <c r="G747" s="13"/>
-      <c r="H747" s="39"/>
+      <c r="G747" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H747" s="39">
+        <v>1</v>
+      </c>
       <c r="I747" s="9"/>
       <c r="J747" s="11"/>
-      <c r="K747" s="20" t="s">
-        <v>454</v>
+      <c r="K747" s="48">
+        <v>44708</v>
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E748" s="9"/>
-      <c r="F748" s="20">
-        <v>0.75</v>
-      </c>
+      <c r="F748" s="20"/>
       <c r="G748" s="13"/>
-      <c r="H748" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="H748" s="39"/>
       <c r="I748" s="9"/>
-      <c r="J748" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="K748" s="20"/>
+      <c r="J748" s="11"/>
+      <c r="K748" s="20" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C749" s="13"/>
-      <c r="D749" s="39"/>
+      <c r="D749" s="39">
+        <v>1.5</v>
+      </c>
       <c r="E749" s="9"/>
-      <c r="F749" s="20"/>
+      <c r="F749" s="20">
+        <v>0.75</v>
+      </c>
       <c r="G749" s="13"/>
-      <c r="H749" s="39"/>
+      <c r="H749" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I749" s="9"/>
       <c r="J749" s="11">
-        <v>3</v>
-      </c>
-      <c r="K749" s="20" t="s">
-        <v>455</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="K749" s="20"/>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20" t="s">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="C750" s="13"/>
-      <c r="D750" s="39">
-        <v>2</v>
-      </c>
+      <c r="D750" s="39"/>
       <c r="E750" s="9"/>
       <c r="F750" s="20"/>
-      <c r="G750" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G750" s="13"/>
       <c r="H750" s="39"/>
       <c r="I750" s="9"/>
-      <c r="J750" s="11"/>
+      <c r="J750" s="11">
+        <v>3</v>
+      </c>
       <c r="K750" s="20" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C751" s="13"/>
       <c r="D751" s="39">
-        <v>0.129</v>
+        <v>2</v>
       </c>
       <c r="E751" s="9"/>
       <c r="F751" s="20"/>
@@ -18704,26 +18714,24 @@
       <c r="H751" s="39"/>
       <c r="I751" s="9"/>
       <c r="J751" s="11"/>
-      <c r="K751" s="20"/>
+      <c r="K751" s="20" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A752" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A752" s="40"/>
       <c r="B752" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="C752" s="13">
-        <v>1.25</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C752" s="13"/>
       <c r="D752" s="39">
-        <v>0.312</v>
+        <v>0.129</v>
       </c>
       <c r="E752" s="9"/>
       <c r="F752" s="20"/>
-      <c r="G752" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G752" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H752" s="39"/>
       <c r="I752" s="9"/>
@@ -18732,13 +18740,17 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B753" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B753" s="20" t="s">
+        <v>465</v>
+      </c>
       <c r="C753" s="13">
         <v>1.25</v>
       </c>
-      <c r="D753" s="39"/>
+      <c r="D753" s="39">
+        <v>0.312</v>
+      </c>
       <c r="E753" s="9"/>
       <c r="F753" s="20"/>
       <c r="G753" s="41">
@@ -18752,11 +18764,9 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B754" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B754" s="20"/>
       <c r="C754" s="13">
         <v>1.25</v>
       </c>
@@ -18769,89 +18779,85 @@
       </c>
       <c r="H754" s="39"/>
       <c r="I754" s="9"/>
-      <c r="J754" s="11">
-        <v>1</v>
-      </c>
-      <c r="K754" s="48">
-        <v>44757</v>
-      </c>
+      <c r="J754" s="11"/>
+      <c r="K754" s="20"/>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A755" s="40"/>
+      <c r="A755" s="40">
+        <v>44805</v>
+      </c>
       <c r="B755" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C755" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C755" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D755" s="39"/>
       <c r="E755" s="9"/>
       <c r="F755" s="20"/>
-      <c r="G755" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H755" s="39">
-        <v>3</v>
-      </c>
+      <c r="G755" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H755" s="39"/>
       <c r="I755" s="9"/>
-      <c r="J755" s="11"/>
-      <c r="K755" s="48" t="s">
-        <v>457</v>
+      <c r="J755" s="11">
+        <v>1</v>
+      </c>
+      <c r="K755" s="48">
+        <v>44757</v>
       </c>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20" t="s">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="C756" s="13"/>
-      <c r="D756" s="39">
-        <v>4</v>
-      </c>
+      <c r="D756" s="39"/>
       <c r="E756" s="9"/>
       <c r="F756" s="20"/>
-      <c r="G756" s="13" t="str">
+      <c r="G756" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H756" s="39"/>
+      <c r="H756" s="39">
+        <v>3</v>
+      </c>
       <c r="I756" s="9"/>
       <c r="J756" s="11"/>
       <c r="K756" s="48" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A757" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A757" s="40"/>
       <c r="B757" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C757" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D757" s="39"/>
+        <v>463</v>
+      </c>
+      <c r="C757" s="13"/>
+      <c r="D757" s="39">
+        <v>4</v>
+      </c>
       <c r="E757" s="9"/>
       <c r="F757" s="20"/>
-      <c r="G757" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H757" s="39">
-        <v>3</v>
-      </c>
+      <c r="G757" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H757" s="39"/>
       <c r="I757" s="9"/>
       <c r="J757" s="11"/>
-      <c r="K757" s="20" t="s">
-        <v>456</v>
+      <c r="K757" s="48" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B758" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C758" s="13">
         <v>1.25</v>
@@ -18864,173 +18870,179 @@
         <v>1.25</v>
       </c>
       <c r="H758" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I758" s="9"/>
       <c r="J758" s="11"/>
-      <c r="K758" s="48">
-        <v>44887</v>
+      <c r="K758" s="20" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A759" s="40"/>
+      <c r="A759" s="40">
+        <v>44866</v>
+      </c>
       <c r="B759" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="C759" s="13"/>
-      <c r="D759" s="39">
-        <v>13</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C759" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D759" s="39"/>
       <c r="E759" s="9"/>
       <c r="F759" s="20"/>
-      <c r="G759" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H759" s="39"/>
+      <c r="G759" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H759" s="39">
+        <v>1</v>
+      </c>
       <c r="I759" s="9"/>
       <c r="J759" s="11"/>
-      <c r="K759" s="48" t="s">
-        <v>462</v>
+      <c r="K759" s="48">
+        <v>44887</v>
       </c>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A760" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A760" s="40"/>
       <c r="B760" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C760" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D760" s="39"/>
+        <v>461</v>
+      </c>
+      <c r="C760" s="13"/>
+      <c r="D760" s="39">
+        <v>13</v>
+      </c>
       <c r="E760" s="9"/>
       <c r="F760" s="20"/>
-      <c r="G760" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H760" s="39">
-        <v>1</v>
-      </c>
+      <c r="G760" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H760" s="39"/>
       <c r="I760" s="9"/>
       <c r="J760" s="11"/>
-      <c r="K760" s="48">
+      <c r="K760" s="48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A761" s="40">
         <v>44896</v>
       </c>
-    </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A761" s="40"/>
       <c r="B761" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C761" s="13"/>
-      <c r="D761" s="39">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C761" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D761" s="39"/>
       <c r="E761" s="9"/>
       <c r="F761" s="20"/>
-      <c r="G761" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H761" s="39"/>
+      <c r="G761" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H761" s="39">
+        <v>1</v>
+      </c>
       <c r="I761" s="9"/>
       <c r="J761" s="11"/>
       <c r="K761" s="48">
-        <v>44922</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A762" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="B762" s="20"/>
+      <c r="A762" s="40"/>
+      <c r="B762" s="20" t="s">
+        <v>460</v>
+      </c>
       <c r="C762" s="13"/>
-      <c r="D762" s="39"/>
+      <c r="D762" s="39">
+        <v>1</v>
+      </c>
       <c r="E762" s="9"/>
       <c r="F762" s="20"/>
-      <c r="G762" s="41" t="str">
+      <c r="G762" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H762" s="39"/>
       <c r="I762" s="9"/>
       <c r="J762" s="11"/>
-      <c r="K762" s="20"/>
+      <c r="K762" s="48">
+        <v>44922</v>
+      </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A763" s="40">
-        <v>44957</v>
-      </c>
-      <c r="B763" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C763" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A763" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="B763" s="20"/>
+      <c r="C763" s="13"/>
       <c r="D763" s="39"/>
       <c r="E763" s="9"/>
       <c r="F763" s="20"/>
-      <c r="G763" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H763" s="39">
-        <v>1</v>
-      </c>
+      <c r="G763" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H763" s="39"/>
       <c r="I763" s="9"/>
       <c r="J763" s="11"/>
-      <c r="K763" s="48">
-        <v>44930</v>
-      </c>
+      <c r="K763" s="20"/>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A764" s="40"/>
+      <c r="A764" s="40">
+        <v>44957</v>
+      </c>
       <c r="B764" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C764" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C764" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D764" s="39"/>
       <c r="E764" s="9"/>
       <c r="F764" s="20"/>
-      <c r="G764" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G764" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H764" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I764" s="9"/>
       <c r="J764" s="11"/>
-      <c r="K764" s="48" t="s">
-        <v>459</v>
+      <c r="K764" s="48">
+        <v>44930</v>
       </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A765" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B765" s="20"/>
-      <c r="C765" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A765" s="40"/>
+      <c r="B765" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C765" s="13"/>
       <c r="D765" s="39"/>
       <c r="E765" s="9"/>
       <c r="F765" s="20"/>
-      <c r="G765" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H765" s="39"/>
+      <c r="G765" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H765" s="39">
+        <v>3</v>
+      </c>
       <c r="I765" s="9"/>
       <c r="J765" s="11"/>
-      <c r="K765" s="20"/>
+      <c r="K765" s="48" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13">
@@ -19050,7 +19062,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13">
@@ -19070,7 +19082,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13">
@@ -19090,11 +19102,9 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B769" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="B769" s="20"/>
       <c r="C769" s="13">
         <v>1.25</v>
       </c>
@@ -19105,27 +19115,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H769" s="39">
-        <v>1</v>
-      </c>
+      <c r="H769" s="39"/>
       <c r="I769" s="9"/>
       <c r="J769" s="11"/>
-      <c r="K769" s="48">
-        <v>45100</v>
-      </c>
+      <c r="K769" s="20"/>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A770" s="40"/>
+      <c r="A770" s="40">
+        <v>45107</v>
+      </c>
       <c r="B770" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C770" s="13"/>
+      <c r="C770" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D770" s="39"/>
       <c r="E770" s="9"/>
       <c r="F770" s="20"/>
-      <c r="G770" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G770" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H770" s="39">
         <v>1</v>
@@ -19133,107 +19143,109 @@
       <c r="I770" s="9"/>
       <c r="J770" s="11"/>
       <c r="K770" s="48">
-        <v>45104</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" s="40">
-        <v>45138</v>
-      </c>
+      <c r="A771" s="40"/>
       <c r="B771" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C771" s="13">
-        <v>1.25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C771" s="13"/>
       <c r="D771" s="39"/>
       <c r="E771" s="9"/>
       <c r="F771" s="20"/>
-      <c r="G771" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G771" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H771" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" s="9"/>
       <c r="J771" s="11"/>
-      <c r="K771" s="20" t="s">
-        <v>474</v>
+      <c r="K771" s="48">
+        <v>45104</v>
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" s="40"/>
+      <c r="A772" s="40">
+        <v>45138</v>
+      </c>
       <c r="B772" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C772" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C772" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D772" s="39"/>
       <c r="E772" s="9"/>
       <c r="F772" s="20"/>
-      <c r="G772" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G772" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H772" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I772" s="9"/>
       <c r="J772" s="11"/>
-      <c r="K772" s="48">
-        <v>45132</v>
+      <c r="K772" s="20" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" s="40">
-        <v>45169</v>
-      </c>
+      <c r="A773" s="40"/>
       <c r="B773" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C773" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D773" s="39">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C773" s="13"/>
+      <c r="D773" s="39"/>
       <c r="E773" s="9"/>
       <c r="F773" s="20"/>
-      <c r="G773" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H773" s="39"/>
+      <c r="G773" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H773" s="39">
+        <v>1</v>
+      </c>
       <c r="I773" s="9"/>
       <c r="J773" s="11"/>
-      <c r="K773" s="20" t="s">
-        <v>475</v>
+      <c r="K773" s="48">
+        <v>45132</v>
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A774" s="40"/>
+      <c r="A774" s="40">
+        <v>45169</v>
+      </c>
       <c r="B774" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C774" s="13"/>
-      <c r="D774" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="C774" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D774" s="39">
+        <v>3</v>
+      </c>
       <c r="E774" s="9"/>
       <c r="F774" s="20"/>
-      <c r="G774" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G774" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H774" s="39"/>
       <c r="I774" s="9"/>
       <c r="J774" s="11"/>
-      <c r="K774" s="48">
-        <v>45140</v>
+      <c r="K774" s="20" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C775" s="13"/>
       <c r="D775" s="39"/>
@@ -19243,31 +19255,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H775" s="39">
-        <v>1</v>
-      </c>
+      <c r="H775" s="39"/>
       <c r="I775" s="9"/>
       <c r="J775" s="11"/>
       <c r="K775" s="48">
-        <v>45148</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" s="40">
-        <v>45199</v>
-      </c>
+      <c r="A776" s="40"/>
       <c r="B776" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C776" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C776" s="13"/>
       <c r="D776" s="39"/>
       <c r="E776" s="9"/>
       <c r="F776" s="20"/>
-      <c r="G776" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G776" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H776" s="39">
         <v>1</v>
@@ -19275,81 +19281,85 @@
       <c r="I776" s="9"/>
       <c r="J776" s="11"/>
       <c r="K776" s="48">
-        <v>45175</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A777" s="40"/>
+      <c r="A777" s="40">
+        <v>45199</v>
+      </c>
       <c r="B777" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C777" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C777" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D777" s="39"/>
       <c r="E777" s="9"/>
       <c r="F777" s="20"/>
-      <c r="G777" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H777" s="39"/>
+      <c r="G777" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H777" s="39">
+        <v>1</v>
+      </c>
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
-      <c r="K777" s="48" t="s">
-        <v>476</v>
+      <c r="K777" s="48">
+        <v>45175</v>
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" s="40">
-        <v>45230</v>
-      </c>
+      <c r="A778" s="40"/>
       <c r="B778" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C778" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D778" s="39">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C778" s="13"/>
+      <c r="D778" s="39"/>
       <c r="E778" s="9"/>
       <c r="F778" s="20"/>
-      <c r="G778" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G778" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H778" s="39"/>
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
-      <c r="K778" s="20" t="s">
-        <v>477</v>
+      <c r="K778" s="48" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A779" s="40"/>
+      <c r="A779" s="40">
+        <v>45230</v>
+      </c>
       <c r="B779" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C779" s="13"/>
-      <c r="D779" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="C779" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D779" s="39">
+        <v>2</v>
+      </c>
       <c r="E779" s="9"/>
       <c r="F779" s="20"/>
-      <c r="G779" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H779" s="39">
-        <v>2</v>
-      </c>
+      <c r="G779" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H779" s="39"/>
       <c r="I779" s="9"/>
       <c r="J779" s="11"/>
       <c r="K779" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C780" s="13"/>
       <c r="D780" s="39"/>
@@ -19360,55 +19370,59 @@
         <v/>
       </c>
       <c r="H780" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I780" s="9"/>
       <c r="J780" s="11"/>
       <c r="K780" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B781" s="20"/>
-      <c r="C781" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A781" s="40"/>
+      <c r="B781" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C781" s="13"/>
       <c r="D781" s="39"/>
       <c r="E781" s="9"/>
       <c r="F781" s="20"/>
-      <c r="G781" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H781" s="39"/>
+      <c r="G781" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H781" s="39">
+        <v>4</v>
+      </c>
       <c r="I781" s="9"/>
       <c r="J781" s="11"/>
-      <c r="K781" s="20"/>
+      <c r="K781" s="20" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B782" s="20"/>
-      <c r="C782" s="13"/>
+      <c r="C782" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D782" s="39"/>
       <c r="E782" s="9"/>
       <c r="F782" s="20"/>
-      <c r="G782" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G782" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H782" s="39"/>
       <c r="I782" s="9"/>
       <c r="J782" s="11"/>
-      <c r="K782" s="9"/>
+      <c r="K782" s="20"/>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19422,11 +19436,11 @@
       <c r="H783" s="39"/>
       <c r="I783" s="9"/>
       <c r="J783" s="11"/>
-      <c r="K783" s="20"/>
+      <c r="K783" s="9"/>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19444,7 +19458,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19462,7 +19476,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19480,7 +19494,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19498,7 +19512,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19516,7 +19530,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19534,7 +19548,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19552,7 +19566,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19570,7 +19584,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19588,7 +19602,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19606,7 +19620,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19624,7 +19638,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19642,21 +19656,39 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B796" s="20"/>
+      <c r="C796" s="13"/>
+      <c r="D796" s="39"/>
+      <c r="E796" s="9"/>
+      <c r="F796" s="20"/>
+      <c r="G796" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H796" s="39"/>
+      <c r="I796" s="9"/>
+      <c r="J796" s="11"/>
+      <c r="K796" s="20"/>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A797" s="40">
         <v>45716</v>
       </c>
-      <c r="B796" s="15"/>
-      <c r="C796" s="41"/>
-      <c r="D796" s="42"/>
-      <c r="E796" s="50"/>
-      <c r="F796" s="15"/>
-      <c r="G796" s="41" t="str">
+      <c r="B797" s="15"/>
+      <c r="C797" s="41"/>
+      <c r="D797" s="42"/>
+      <c r="E797" s="50"/>
+      <c r="F797" s="15"/>
+      <c r="G797" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H796" s="42"/>
-      <c r="I796" s="50"/>
-      <c r="J796" s="12"/>
-      <c r="K796" s="15"/>
+      <c r="H797" s="42"/>
+      <c r="I797" s="50"/>
+      <c r="J797" s="12"/>
+      <c r="K797" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19703,7 +19735,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19783,22 +19815,22 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="J3" s="46">
-        <v>35612</v>
+        <v>5</v>
       </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="44" t="e">
+        <v>4</v>
+      </c>
+      <c r="L3" s="44">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>#N/A</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="482">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1473,6 +1473,12 @@
   </si>
   <si>
     <t>10/10-13/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/3-5,8/2024</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1909,6 +1915,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,7 +2196,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K797" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K798" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2516,12 +2525,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L797"/>
+  <dimension ref="A2:L798"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3450" topLeftCell="A641" activePane="bottomLeft"/>
+      <pane ySplit="3450" topLeftCell="A767" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E784" sqref="E784"/>
+      <selection pane="bottomLeft" activeCell="K785" sqref="K785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2689,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.59400000000025</v>
+        <v>22.84400000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2690,7 +2699,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.576000000000334</v>
+        <v>55.826000000000334</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19425,13 +19434,15 @@
         <v>45291</v>
       </c>
       <c r="B783" s="20"/>
-      <c r="C783" s="13"/>
+      <c r="C783" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D783" s="39"/>
       <c r="E783" s="9"/>
       <c r="F783" s="20"/>
-      <c r="G783" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G783" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H783" s="39"/>
       <c r="I783" s="9"/>
@@ -19439,28 +19450,30 @@
       <c r="K783" s="9"/>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A784" s="40">
-        <v>45322</v>
+      <c r="A784" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
       <c r="D784" s="39"/>
       <c r="E784" s="9"/>
       <c r="F784" s="20"/>
-      <c r="G784" s="41" t="str">
+      <c r="G784" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H784" s="39"/>
       <c r="I784" s="9"/>
       <c r="J784" s="11"/>
-      <c r="K784" s="20"/>
+      <c r="K784" s="64"/>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B785" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B785" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C785" s="13"/>
       <c r="D785" s="39"/>
       <c r="E785" s="9"/>
@@ -19469,14 +19482,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H785" s="39"/>
+      <c r="H785" s="39">
+        <v>4</v>
+      </c>
       <c r="I785" s="9"/>
       <c r="J785" s="11"/>
-      <c r="K785" s="20"/>
+      <c r="K785" s="20" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19494,7 +19511,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19512,7 +19529,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19530,7 +19547,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19548,7 +19565,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19566,7 +19583,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19584,7 +19601,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19602,7 +19619,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19620,7 +19637,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19638,7 +19655,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19656,7 +19673,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19674,21 +19691,39 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B797" s="20"/>
+      <c r="C797" s="13"/>
+      <c r="D797" s="39"/>
+      <c r="E797" s="9"/>
+      <c r="F797" s="20"/>
+      <c r="G797" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H797" s="39"/>
+      <c r="I797" s="9"/>
+      <c r="J797" s="11"/>
+      <c r="K797" s="20"/>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A798" s="40">
         <v>45716</v>
       </c>
-      <c r="B797" s="15"/>
-      <c r="C797" s="41"/>
-      <c r="D797" s="42"/>
-      <c r="E797" s="50"/>
-      <c r="F797" s="15"/>
-      <c r="G797" s="41" t="str">
+      <c r="B798" s="15"/>
+      <c r="C798" s="41"/>
+      <c r="D798" s="42"/>
+      <c r="E798" s="50"/>
+      <c r="F798" s="15"/>
+      <c r="G798" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H797" s="42"/>
-      <c r="I797" s="50"/>
-      <c r="J797" s="12"/>
-      <c r="K797" s="15"/>
+      <c r="H798" s="42"/>
+      <c r="I798" s="50"/>
+      <c r="J798" s="12"/>
+      <c r="K798" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="482">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1883,6 +1883,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1915,9 +1918,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,7 +2196,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K798" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K799" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2525,12 +2525,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L798"/>
+  <dimension ref="A2:L799"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3450" topLeftCell="A767" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K785" sqref="K785"/>
+      <selection pane="bottomLeft" activeCell="G767" sqref="G767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,60 +2552,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2631,18 +2631,18 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.826000000000334</v>
+        <v>54.826000000000334</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19465,7 +19465,7 @@
       <c r="H784" s="39"/>
       <c r="I784" s="9"/>
       <c r="J784" s="11"/>
-      <c r="K784" s="64"/>
+      <c r="K784" s="53"/>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
@@ -19492,10 +19492,10 @@
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A786" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B786" s="20"/>
+      <c r="A786" s="40"/>
+      <c r="B786" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C786" s="13"/>
       <c r="D786" s="39"/>
       <c r="E786" s="9"/>
@@ -19504,14 +19504,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H786" s="39"/>
+      <c r="H786" s="39">
+        <v>1</v>
+      </c>
       <c r="I786" s="9"/>
       <c r="J786" s="11"/>
-      <c r="K786" s="20"/>
+      <c r="K786" s="48">
+        <v>45301</v>
+      </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19529,7 +19533,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19547,7 +19551,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19565,7 +19569,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19583,7 +19587,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19601,7 +19605,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19619,7 +19623,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19637,7 +19641,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19655,7 +19659,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19673,7 +19677,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19691,7 +19695,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19709,21 +19713,39 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B798" s="20"/>
+      <c r="C798" s="13"/>
+      <c r="D798" s="39"/>
+      <c r="E798" s="9"/>
+      <c r="F798" s="20"/>
+      <c r="G798" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H798" s="39"/>
+      <c r="I798" s="9"/>
+      <c r="J798" s="11"/>
+      <c r="K798" s="20"/>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A799" s="40">
         <v>45716</v>
       </c>
-      <c r="B798" s="15"/>
-      <c r="C798" s="41"/>
-      <c r="D798" s="42"/>
-      <c r="E798" s="50"/>
-      <c r="F798" s="15"/>
-      <c r="G798" s="41" t="str">
+      <c r="B799" s="15"/>
+      <c r="C799" s="41"/>
+      <c r="D799" s="42"/>
+      <c r="E799" s="50"/>
+      <c r="F799" s="15"/>
+      <c r="G799" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H798" s="42"/>
-      <c r="I798" s="50"/>
-      <c r="J798" s="12"/>
-      <c r="K798" s="15"/>
+      <c r="H799" s="42"/>
+      <c r="I799" s="50"/>
+      <c r="J799" s="12"/>
+      <c r="K799" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19788,17 +19810,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -19885,12 +19907,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="483">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1479,6 +1479,9 @@
   </si>
   <si>
     <t>1/3-5,8/2024</t>
+  </si>
+  <si>
+    <t>1/12,15,16/2024</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2199,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K799" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K800" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2525,12 +2528,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L799"/>
+  <dimension ref="A2:L800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3450" topLeftCell="A767" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G767" sqref="G767"/>
+      <selection pane="bottomLeft" activeCell="I787" sqref="I787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2702,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.826000000000334</v>
+        <v>51.826000000000334</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19514,26 +19517,30 @@
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A787" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B787" s="20"/>
+      <c r="A787" s="40"/>
+      <c r="B787" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C787" s="13"/>
       <c r="D787" s="39"/>
       <c r="E787" s="9"/>
       <c r="F787" s="20"/>
-      <c r="G787" s="41" t="str">
+      <c r="G787" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H787" s="39"/>
+      <c r="H787" s="39">
+        <v>3</v>
+      </c>
       <c r="I787" s="9"/>
       <c r="J787" s="11"/>
-      <c r="K787" s="20"/>
+      <c r="K787" s="48" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19551,7 +19558,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19569,7 +19576,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19587,7 +19594,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19605,7 +19612,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19623,7 +19630,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19641,7 +19648,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19659,7 +19666,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19677,7 +19684,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19695,7 +19702,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19713,7 +19720,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -19731,21 +19738,39 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B799" s="20"/>
+      <c r="C799" s="13"/>
+      <c r="D799" s="39"/>
+      <c r="E799" s="9"/>
+      <c r="F799" s="20"/>
+      <c r="G799" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H799" s="39"/>
+      <c r="I799" s="9"/>
+      <c r="J799" s="11"/>
+      <c r="K799" s="20"/>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A800" s="40">
         <v>45716</v>
       </c>
-      <c r="B799" s="15"/>
-      <c r="C799" s="41"/>
-      <c r="D799" s="42"/>
-      <c r="E799" s="50"/>
-      <c r="F799" s="15"/>
-      <c r="G799" s="41" t="str">
+      <c r="B800" s="15"/>
+      <c r="C800" s="41"/>
+      <c r="D800" s="42"/>
+      <c r="E800" s="50"/>
+      <c r="F800" s="15"/>
+      <c r="G800" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H799" s="42"/>
-      <c r="I799" s="50"/>
-      <c r="J799" s="12"/>
-      <c r="K799" s="15"/>
+      <c r="H800" s="42"/>
+      <c r="I800" s="50"/>
+      <c r="J800" s="12"/>
+      <c r="K800" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GSO/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/GSO/DE VILLA, MYRNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="485">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1482,6 +1482,12 @@
   </si>
   <si>
     <t>1/12,15,16/2024</t>
+  </si>
+  <si>
+    <t>02/12-16/2024</t>
+  </si>
+  <si>
+    <t>02/01,02,05,06/2024</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2205,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K800" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K801" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2528,12 +2534,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L800"/>
+  <dimension ref="A2:L801"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3450" topLeftCell="A767" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4170" topLeftCell="A779" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I787" sqref="I787"/>
+      <selection pane="bottomLeft" activeCell="B789" sqref="B789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,7 +2698,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.84400000000025</v>
+        <v>19.09400000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2702,7 +2708,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.826000000000334</v>
+        <v>49.076000000000334</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19477,13 +19483,15 @@
       <c r="B785" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C785" s="13"/>
+      <c r="C785" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D785" s="39"/>
       <c r="E785" s="9"/>
       <c r="F785" s="20"/>
-      <c r="G785" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G785" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H785" s="39">
         <v>4</v>
@@ -19542,9 +19550,13 @@
       <c r="A788" s="40">
         <v>45351</v>
       </c>
-      <c r="B788" s="20"/>
+      <c r="B788" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C788" s="13"/>
-      <c r="D788" s="39"/>
+      <c r="D788" s="39">
+        <v>5</v>
+      </c>
       <c r="E788" s="9"/>
       <c r="F788" s="20"/>
       <c r="G788" s="41" t="str">
@@ -19554,13 +19566,15 @@
       <c r="H788" s="39"/>
       <c r="I788" s="9"/>
       <c r="J788" s="11"/>
-      <c r="K788" s="20"/>
+      <c r="K788" s="20" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A789" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B789" s="20"/>
+      <c r="A789" s="40"/>
+      <c r="B789" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C789" s="13"/>
       <c r="D789" s="39"/>
       <c r="E789" s="9"/>
@@ -19569,14 +19583,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H789" s="39"/>
+      <c r="H789" s="39">
+        <v>4</v>
+      </c>
       <c r="I789" s="9"/>
       <c r="J789" s="11"/>
-      <c r="K789" s="20"/>
+      <c r="K789" s="20" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19594,7 +19612,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19612,7 +19630,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19630,7 +19648,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19648,7 +19666,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19666,7 +19684,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19684,7 +19702,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19702,7 +19720,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19720,7 +19738,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -19738,7 +19756,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -19756,21 +19774,39 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B800" s="20"/>
+      <c r="C800" s="13"/>
+      <c r="D800" s="39"/>
+      <c r="E800" s="9"/>
+      <c r="F800" s="20"/>
+      <c r="G800" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H800" s="39"/>
+      <c r="I800" s="9"/>
+      <c r="J800" s="11"/>
+      <c r="K800" s="20"/>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A801" s="40">
         <v>45716</v>
       </c>
-      <c r="B800" s="15"/>
-      <c r="C800" s="41"/>
-      <c r="D800" s="42"/>
-      <c r="E800" s="50"/>
-      <c r="F800" s="15"/>
-      <c r="G800" s="41" t="str">
+      <c r="B801" s="15"/>
+      <c r="C801" s="41"/>
+      <c r="D801" s="42"/>
+      <c r="E801" s="50"/>
+      <c r="F801" s="15"/>
+      <c r="G801" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H800" s="42"/>
-      <c r="I800" s="50"/>
-      <c r="J800" s="12"/>
-      <c r="K800" s="15"/>
+      <c r="H801" s="42"/>
+      <c r="I801" s="50"/>
+      <c r="J801" s="12"/>
+      <c r="K801" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
